--- a/Excel/PublicQiangHuaConfig.xlsx
+++ b/Excel/PublicQiangHuaConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466AF7D9-B053-4D46-9302-759C05E987B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C538D5EB-C299-42B5-BC87-DF62A0D8F5EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipQiangHuaProto" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -51,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="M3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -61,579 +61,6 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">作者:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">10.生命值
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">11.物理攻击       
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">14.魔法攻击
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">17.物理防御        
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">20.魔法防御
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">30.暴击
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">31.命中
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">32.闪避
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">33.物理免伤
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">34.魔法免伤
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">35.移动速度
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">36.伤害减免
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">50:血量百分比
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">51：物攻百分比
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">52：魔攻百分比
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">53：物防百分比
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">54：魔防百分比
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">101：格挡值
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">111：重击概率
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">112:  重击附加伤害值
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">121:  每次普通攻击附加的伤害值
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">131:  忽视目标防御值   
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">132:  忽视目标魔防值
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">133:  忽视目标百分比防御值
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">134:  忽视目标百分比魔防值
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">141:  吸血概率
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">151:  法术反击
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">152:  攻击反击
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">161：韧性
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">201：初始暴击等级
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">202：初始韧性等级
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">203：初始命中等级
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">204：初始闪避等级
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">301:光抗性
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">302:暗抗性
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">303:火抗性
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">304:水抗性
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">305:电抗性
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">321：//野兽攻击抗性
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">322：//人物攻击抗性
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">323：//恶魔攻击抗性
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">401：//经验加成
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">402：//金币加成
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">403：//洗炼极品掉落
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">404：//隐藏属性出现概率
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t>405：//装备上的宝石槽位出现概率</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">作者:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">属性类型，属性值     ;号间隔多个属性
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
 </t>
         </r>
         <r>
@@ -1315,10 +742,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
-  <si>
-    <t>#</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="75">
   <si>
     <t>Id</t>
   </si>
@@ -1371,9 +795,6 @@
     <t>EquipPropreAdd</t>
   </si>
   <si>
-    <t>AddPropreListStr</t>
-  </si>
-  <si>
     <t>ItemSubType</t>
   </si>
   <si>
@@ -1488,6 +909,102 @@
   </si>
   <si>
     <t>强化类型</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>keji_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>keji_2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>keji_3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>keji_4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>keji_5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>keji_6</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>keji_7</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>keji_8</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>220103;0.01@220203;0.01</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>220103;0.02@220203;0.02</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>220103;0.03@220203;0.03</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>220103;0.08@220203;0.08</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>220103;0.1@220203;0.1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>220103;0.12@220203;0.12</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>220103;0.15@220203;0.15</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>220103;0.175@220203;0.175</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>220103;0.2@220203;0.2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>220103;0.25@220203;0.25</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>220103;0.3@220203;0.3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>220103;0.35@220203;0.35</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1693,7 +1210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1721,6 +1238,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2881,19 +2401,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:IF18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
     <col min="3" max="3" width="8.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16" style="3" customWidth="1"/>
-    <col min="6" max="10" width="14.125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="21.875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="24.875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="16" style="3" customWidth="1"/>
+    <col min="4" max="5" width="14.125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16" style="3" customWidth="1"/>
+    <col min="7" max="11" width="14.125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="21.875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="24.875" style="3" customWidth="1"/>
     <col min="14" max="14" width="21.75" style="3" customWidth="1"/>
     <col min="15" max="240" width="8.875" style="3" customWidth="1"/>
   </cols>
@@ -2901,121 +2420,122 @@
     <row r="1" spans="3:240" s="1" customFormat="1" ht="14.25"/>
     <row r="2" spans="3:240" ht="13.5" customHeight="1">
       <c r="D2" s="4" t="s">
-        <v>0</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="3:240" ht="20.100000000000001" customHeight="1">
       <c r="C3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="I3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="3:240" ht="20.100000000000001" customHeight="1">
       <c r="C4" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="7" t="s">
+      <c r="N4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="3:240" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C5" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="3:240" ht="20.100000000000001" customHeight="1">
@@ -3023,31 +2543,31 @@
         <v>10100</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="12">
+        <v>48</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="12">
         <v>1</v>
       </c>
-      <c r="F6" s="8">
+      <c r="G6" s="8">
         <v>10101</v>
-      </c>
-      <c r="G6" s="10">
-        <v>0</v>
       </c>
       <c r="H6" s="10">
         <v>0</v>
       </c>
       <c r="I6" s="10">
+        <v>0</v>
+      </c>
+      <c r="J6" s="10">
         <v>1</v>
       </c>
-      <c r="J6" s="11">
+      <c r="K6" s="11">
         <v>30000</v>
       </c>
-      <c r="K6" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6" s="10">
-        <v>0</v>
+      <c r="L6" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="M6" s="10">
         <v>0</v>
@@ -3061,34 +2581,34 @@
         <v>10101</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="12">
+        <v>36</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="12">
         <v>1</v>
       </c>
-      <c r="F7" s="8">
+      <c r="G7" s="8">
         <v>10102</v>
       </c>
-      <c r="G7" s="10">
+      <c r="H7" s="10">
         <v>1</v>
       </c>
-      <c r="H7" s="10">
+      <c r="I7" s="10">
         <v>0</v>
       </c>
-      <c r="I7" s="10">
+      <c r="J7" s="10">
         <v>0.8</v>
       </c>
-      <c r="J7" s="11">
+      <c r="K7" s="11">
         <v>45000</v>
       </c>
-      <c r="K7" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="M7" s="10">
-        <v>0</v>
+      <c r="L7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="N7" s="12">
         <v>0.05</v>
@@ -3099,34 +2619,34 @@
         <v>10102</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="12">
+        <v>37</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="12">
         <v>1</v>
       </c>
-      <c r="F8" s="8">
+      <c r="G8" s="8">
         <v>10103</v>
       </c>
-      <c r="G8" s="10">
+      <c r="H8" s="10">
         <v>2</v>
       </c>
-      <c r="H8" s="10">
+      <c r="I8" s="10">
         <v>0</v>
       </c>
-      <c r="I8" s="10">
+      <c r="J8" s="10">
         <v>0.7</v>
       </c>
-      <c r="J8" s="11">
+      <c r="K8" s="11">
         <v>60000</v>
       </c>
-      <c r="K8" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="M8" s="10">
-        <v>0</v>
+      <c r="L8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="N8" s="12">
         <v>0.04</v>
@@ -3138,34 +2658,34 @@
         <v>10103</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="12">
+        <v>38</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="12">
         <v>1</v>
       </c>
-      <c r="F9" s="8">
+      <c r="G9" s="8">
         <v>10104</v>
       </c>
-      <c r="G9" s="10">
+      <c r="H9" s="10">
         <v>3</v>
       </c>
-      <c r="H9" s="10">
+      <c r="I9" s="10">
         <v>5</v>
       </c>
-      <c r="I9" s="10">
+      <c r="J9" s="10">
         <v>0.6</v>
       </c>
-      <c r="J9" s="11">
+      <c r="K9" s="11">
         <v>75000</v>
       </c>
-      <c r="K9" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="M9" s="10">
-        <v>0</v>
+      <c r="L9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="N9" s="12">
         <v>0.04</v>
@@ -3177,34 +2697,34 @@
         <v>10104</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="12">
+        <v>39</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="12">
         <v>1</v>
       </c>
-      <c r="F10" s="8">
+      <c r="G10" s="8">
         <v>10105</v>
       </c>
-      <c r="G10" s="10">
+      <c r="H10" s="10">
         <v>4</v>
       </c>
-      <c r="H10" s="10">
+      <c r="I10" s="10">
         <v>10</v>
       </c>
-      <c r="I10" s="10">
+      <c r="J10" s="10">
         <v>0.5</v>
       </c>
-      <c r="J10" s="11">
+      <c r="K10" s="11">
         <v>90000</v>
       </c>
-      <c r="K10" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L10" s="10">
-        <v>0.08</v>
-      </c>
-      <c r="M10" s="10">
-        <v>0</v>
+      <c r="L10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="N10" s="12">
         <v>0.03</v>
@@ -3216,34 +2736,34 @@
         <v>10105</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="12">
+        <v>40</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="12">
         <v>1</v>
       </c>
-      <c r="F11" s="8">
+      <c r="G11" s="8">
         <v>10106</v>
       </c>
-      <c r="G11" s="10">
+      <c r="H11" s="10">
         <v>5</v>
       </c>
-      <c r="H11" s="10">
+      <c r="I11" s="10">
         <v>15</v>
       </c>
-      <c r="I11" s="10">
+      <c r="J11" s="10">
         <v>0.4</v>
       </c>
-      <c r="J11" s="11">
+      <c r="K11" s="11">
         <v>120000</v>
       </c>
-      <c r="K11" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="L11" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="M11" s="10">
-        <v>0</v>
+      <c r="L11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="N11" s="12">
         <v>0.03</v>
@@ -3255,34 +2775,34 @@
         <v>10106</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="12">
+        <v>41</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="12">
         <v>1</v>
       </c>
-      <c r="F12" s="8">
+      <c r="G12" s="8">
         <v>10107</v>
       </c>
-      <c r="G12" s="10">
+      <c r="H12" s="10">
         <v>6</v>
       </c>
-      <c r="H12" s="10">
+      <c r="I12" s="10">
         <v>20</v>
       </c>
-      <c r="I12" s="10">
+      <c r="J12" s="10">
         <v>0.3</v>
       </c>
-      <c r="J12" s="11">
+      <c r="K12" s="11">
         <v>150000</v>
       </c>
-      <c r="K12" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L12" s="10">
-        <v>0.125</v>
-      </c>
-      <c r="M12" s="10">
-        <v>0</v>
+      <c r="L12" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="N12" s="12">
         <v>0.02</v>
@@ -3294,34 +2814,34 @@
         <v>10107</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="12">
+        <v>42</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="12">
         <v>1</v>
       </c>
-      <c r="F13" s="8">
+      <c r="G13" s="8">
         <v>10108</v>
       </c>
-      <c r="G13" s="10">
+      <c r="H13" s="10">
         <v>7</v>
       </c>
-      <c r="H13" s="10">
+      <c r="I13" s="10">
         <v>25</v>
       </c>
-      <c r="I13" s="10">
+      <c r="J13" s="10">
         <v>0.25</v>
       </c>
-      <c r="J13" s="11">
+      <c r="K13" s="11">
         <v>180000</v>
       </c>
-      <c r="K13" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="L13" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="M13" s="10">
-        <v>0</v>
+      <c r="L13" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="N13" s="12">
         <v>0.02</v>
@@ -3333,34 +2853,34 @@
         <v>10108</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="12">
+        <v>43</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="12">
         <v>1</v>
       </c>
-      <c r="F14" s="8">
+      <c r="G14" s="8">
         <v>10109</v>
       </c>
-      <c r="G14" s="10">
+      <c r="H14" s="10">
         <v>8</v>
       </c>
-      <c r="H14" s="10">
+      <c r="I14" s="10">
         <v>30</v>
       </c>
-      <c r="I14" s="10">
+      <c r="J14" s="10">
         <v>0.2</v>
       </c>
-      <c r="J14" s="11">
+      <c r="K14" s="11">
         <v>240000</v>
       </c>
-      <c r="K14" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="L14" s="10">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="M14" s="10">
-        <v>0</v>
+      <c r="L14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="N14" s="12">
         <v>0.01</v>
@@ -3372,34 +2892,34 @@
         <v>10109</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="12">
+        <v>44</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="12">
         <v>1</v>
       </c>
-      <c r="F15" s="8">
+      <c r="G15" s="8">
         <v>10110</v>
       </c>
-      <c r="G15" s="10">
+      <c r="H15" s="10">
         <v>9</v>
       </c>
-      <c r="H15" s="10">
+      <c r="I15" s="10">
         <v>35</v>
       </c>
-      <c r="I15" s="10">
+      <c r="J15" s="10">
         <v>0.1</v>
       </c>
-      <c r="J15" s="11">
+      <c r="K15" s="11">
         <v>300000</v>
       </c>
-      <c r="K15" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="L15" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="M15" s="10">
-        <v>0</v>
+      <c r="L15" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="N15" s="12">
         <v>0.01</v>
@@ -3411,34 +2931,34 @@
         <v>10110</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="12">
+        <v>45</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="12">
         <v>1</v>
       </c>
-      <c r="F16" s="8">
+      <c r="G16" s="8">
         <v>10111</v>
       </c>
-      <c r="G16" s="10">
+      <c r="H16" s="10">
         <v>10</v>
       </c>
-      <c r="H16" s="10">
+      <c r="I16" s="10">
         <v>40</v>
       </c>
-      <c r="I16" s="10">
+      <c r="J16" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="J16" s="11" t="s">
-        <v>34</v>
-      </c>
       <c r="K16" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="L16" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="M16" s="10">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="N16" s="12">
         <v>5.0000000000000001E-3</v>
@@ -3450,34 +2970,34 @@
         <v>10111</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="12">
+        <v>46</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="12">
         <v>1</v>
       </c>
-      <c r="F17" s="8">
+      <c r="G17" s="8">
         <v>10112</v>
       </c>
-      <c r="G17" s="10">
+      <c r="H17" s="10">
         <v>11</v>
       </c>
-      <c r="H17" s="10">
+      <c r="I17" s="10">
         <v>45</v>
       </c>
-      <c r="I17" s="10">
+      <c r="J17" s="10">
         <v>0.05</v>
       </c>
-      <c r="J17" s="11" t="s">
-        <v>35</v>
-      </c>
       <c r="K17" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="L17" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="M17" s="10">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="N17" s="12">
         <v>5.0000000000000001E-3</v>
@@ -3489,34 +3009,34 @@
         <v>10112</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="12">
+        <v>47</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="12">
         <v>1</v>
       </c>
-      <c r="F18" s="10">
+      <c r="G18" s="10">
         <v>0</v>
       </c>
-      <c r="G18" s="10">
+      <c r="H18" s="10">
         <v>12</v>
       </c>
-      <c r="H18" s="10">
+      <c r="I18" s="10">
         <v>50</v>
       </c>
-      <c r="I18" s="10">
+      <c r="J18" s="10">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="K18" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="K18" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="L18" s="10">
-        <v>0.35</v>
-      </c>
-      <c r="M18" s="10">
-        <v>0</v>
+      <c r="M18" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="N18" s="12">
         <v>0.01</v>

--- a/Excel/PublicQiangHuaConfig.xlsx
+++ b/Excel/PublicQiangHuaConfig.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitWeiJing\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C538D5EB-C299-42B5-BC87-DF62A0D8F5EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25762B54-61A4-4011-9272-48C408BA4DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipQiangHuaProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -742,7 +742,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="67">
   <si>
     <t>Id</t>
   </si>
@@ -808,48 +808,6 @@
   </si>
   <si>
     <t>double</t>
-  </si>
-  <si>
-    <t>10010085;150</t>
-  </si>
-  <si>
-    <t>10010085;225</t>
-  </si>
-  <si>
-    <t>10010085;300</t>
-  </si>
-  <si>
-    <t>10010085;375</t>
-  </si>
-  <si>
-    <t>10010085;450</t>
-  </si>
-  <si>
-    <t>10010085;600</t>
-  </si>
-  <si>
-    <t>10010085;750</t>
-  </si>
-  <si>
-    <t>10010085;900</t>
-  </si>
-  <si>
-    <t>10010085;1200</t>
-  </si>
-  <si>
-    <t>10010085;1500</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>500000</t>
-  </si>
-  <si>
-    <t>10010085;2000</t>
-  </si>
-  <si>
-    <t>10010085;3000</t>
   </si>
   <si>
     <t>一级血石</t>
@@ -892,14 +850,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>十一级血石</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>十二级血石</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>零级血石</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -960,52 +910,64 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>220103;0.01@220203;0.01</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>220103;0.02@220203;0.02</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>220103;0.03@220203;0.03</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>220103;0.08@220203;0.08</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>220103;0.1@220203;0.1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>220103;0.12@220203;0.12</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>220103;0.15@220203;0.15</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>220103;0.175@220203;0.175</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>220103;0.2@220203;0.2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>220103;0.25@220203;0.25</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>220103;0.3@220203;0.3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>220103;0.35@220203;0.35</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <t>10000143;150</t>
+  </si>
+  <si>
+    <t>10000143;200</t>
+  </si>
+  <si>
+    <t>10000143;300</t>
+  </si>
+  <si>
+    <t>10000143;400</t>
+  </si>
+  <si>
+    <t>10000143;500</t>
+  </si>
+  <si>
+    <t>10000152;200</t>
+  </si>
+  <si>
+    <t>10000152;300</t>
+  </si>
+  <si>
+    <t>10000152;400</t>
+  </si>
+  <si>
+    <t>10000152;450</t>
+  </si>
+  <si>
+    <t>10000152;500</t>
+  </si>
+  <si>
+    <t>100203;10000</t>
+  </si>
+  <si>
+    <t>100203;1000</t>
+  </si>
+  <si>
+    <t>100203;2000</t>
+  </si>
+  <si>
+    <t>100203;3500</t>
+  </si>
+  <si>
+    <t>100203;5000</t>
+  </si>
+  <si>
+    <t>100203;7500</t>
+  </si>
+  <si>
+    <t>100203;12500</t>
+  </si>
+  <si>
+    <t>100203;15000</t>
+  </si>
+  <si>
+    <t>100203;17500</t>
+  </si>
+  <si>
+    <t>100203;20000</t>
   </si>
 </sst>
 </file>
@@ -2399,10 +2361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:IF18"/>
+  <dimension ref="C1:IF16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -2420,7 +2382,7 @@
     <row r="1" spans="3:240" s="1" customFormat="1" ht="14.25"/>
     <row r="2" spans="3:240" ht="13.5" customHeight="1">
       <c r="D2" s="4" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="E2" s="4"/>
     </row>
@@ -2432,10 +2394,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>2</v>
@@ -2444,7 +2406,7 @@
         <v>3</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>4</v>
@@ -2470,7 +2432,7 @@
         <v>9</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>17</v>
@@ -2508,7 +2470,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>19</v>
@@ -2543,10 +2505,10 @@
         <v>10100</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="F6" s="12">
         <v>1</v>
@@ -2558,22 +2520,22 @@
         <v>0</v>
       </c>
       <c r="I6" s="10">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J6" s="10">
         <v>1</v>
       </c>
-      <c r="K6" s="11">
-        <v>30000</v>
+      <c r="K6" s="10">
+        <v>25000000</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="M6" s="10">
         <v>0</v>
       </c>
       <c r="N6" s="12">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="3:240" ht="20.100000000000001" customHeight="1">
@@ -2581,10 +2543,10 @@
         <v>10101</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="F7" s="12">
         <v>1</v>
@@ -2596,22 +2558,22 @@
         <v>1</v>
       </c>
       <c r="I7" s="10">
+        <v>60</v>
+      </c>
+      <c r="J7" s="10">
+        <v>1</v>
+      </c>
+      <c r="K7" s="10">
+        <v>50000000</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="N7" s="12">
         <v>0</v>
-      </c>
-      <c r="J7" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="K7" s="11">
-        <v>45000</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="N7" s="12">
-        <v>0.05</v>
       </c>
     </row>
     <row r="8" spans="3:240" ht="20.100000000000001" customHeight="1">
@@ -2619,10 +2581,10 @@
         <v>10102</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F8" s="12">
         <v>1</v>
@@ -2634,22 +2596,22 @@
         <v>2</v>
       </c>
       <c r="I8" s="10">
+        <v>60</v>
+      </c>
+      <c r="J8" s="10">
+        <v>1</v>
+      </c>
+      <c r="K8" s="10">
+        <v>75000000</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="N8" s="12">
         <v>0</v>
-      </c>
-      <c r="J8" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="K8" s="11">
-        <v>60000</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="N8" s="12">
-        <v>0.04</v>
       </c>
       <c r="IF8"/>
     </row>
@@ -2658,10 +2620,10 @@
         <v>10103</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="F9" s="12">
         <v>1</v>
@@ -2673,22 +2635,22 @@
         <v>3</v>
       </c>
       <c r="I9" s="10">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="J9" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="K9" s="11">
-        <v>75000</v>
+        <v>1</v>
+      </c>
+      <c r="K9" s="10">
+        <v>100000000</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="N9" s="12">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="IF9"/>
     </row>
@@ -2697,10 +2659,10 @@
         <v>10104</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="F10" s="12">
         <v>1</v>
@@ -2712,22 +2674,22 @@
         <v>4</v>
       </c>
       <c r="I10" s="10">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="J10" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="K10" s="11">
-        <v>90000</v>
+        <v>1</v>
+      </c>
+      <c r="K10" s="10">
+        <v>125000000</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="N10" s="12">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="IF10"/>
     </row>
@@ -2736,10 +2698,10 @@
         <v>10105</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F11" s="12">
         <v>1</v>
@@ -2751,22 +2713,22 @@
         <v>5</v>
       </c>
       <c r="I11" s="10">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="J11" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="K11" s="11">
-        <v>120000</v>
+        <v>1</v>
+      </c>
+      <c r="K11" s="10">
+        <v>150000000</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="N11" s="12">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="IF11"/>
     </row>
@@ -2775,10 +2737,10 @@
         <v>10106</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F12" s="12">
         <v>1</v>
@@ -2790,22 +2752,22 @@
         <v>6</v>
       </c>
       <c r="I12" s="10">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="J12" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="K12" s="11">
-        <v>150000</v>
+        <v>1</v>
+      </c>
+      <c r="K12" s="10">
+        <v>175000000</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="N12" s="12">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="IF12"/>
     </row>
@@ -2814,10 +2776,10 @@
         <v>10107</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F13" s="12">
         <v>1</v>
@@ -2829,22 +2791,22 @@
         <v>7</v>
       </c>
       <c r="I13" s="10">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="J13" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="K13" s="11">
-        <v>180000</v>
+        <v>1</v>
+      </c>
+      <c r="K13" s="10">
+        <v>200000000</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="N13" s="12">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="IF13"/>
     </row>
@@ -2853,10 +2815,10 @@
         <v>10108</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="F14" s="12">
         <v>1</v>
@@ -2868,22 +2830,22 @@
         <v>8</v>
       </c>
       <c r="I14" s="10">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J14" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="K14" s="11">
-        <v>240000</v>
+        <v>1</v>
+      </c>
+      <c r="K14" s="10">
+        <v>250000000</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="N14" s="12">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="IF14"/>
     </row>
@@ -2892,10 +2854,10 @@
         <v>10109</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="F15" s="12">
         <v>1</v>
@@ -2907,22 +2869,22 @@
         <v>9</v>
       </c>
       <c r="I15" s="10">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="J15" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="K15" s="11">
-        <v>300000</v>
+        <v>1</v>
+      </c>
+      <c r="K15" s="10">
+        <v>300000000</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="N15" s="12">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="IF15"/>
     </row>
@@ -2931,117 +2893,39 @@
         <v>10110</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F16" s="12">
         <v>1</v>
       </c>
       <c r="G16" s="8">
-        <v>10111</v>
+        <v>0</v>
       </c>
       <c r="H16" s="10">
         <v>10</v>
       </c>
       <c r="I16" s="10">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J16" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="K16" s="11" t="s">
-        <v>32</v>
+        <v>1</v>
+      </c>
+      <c r="K16" s="10">
+        <v>300000000</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="N16" s="12">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="IF16"/>
-    </row>
-    <row r="17" spans="3:240" ht="20.100000000000001" customHeight="1">
-      <c r="C17" s="8">
-        <v>10111</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="12">
-        <v>1</v>
-      </c>
-      <c r="G17" s="8">
-        <v>10112</v>
-      </c>
-      <c r="H17" s="10">
-        <v>11</v>
-      </c>
-      <c r="I17" s="10">
-        <v>45</v>
-      </c>
-      <c r="J17" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="L17" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="M17" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="N17" s="12">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="IF17"/>
-    </row>
-    <row r="18" spans="3:240" ht="20.100000000000001" customHeight="1">
-      <c r="C18" s="8">
-        <v>10112</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F18" s="12">
-        <v>1</v>
-      </c>
-      <c r="G18" s="10">
-        <v>0</v>
-      </c>
-      <c r="H18" s="10">
-        <v>12</v>
-      </c>
-      <c r="I18" s="10">
-        <v>50</v>
-      </c>
-      <c r="J18" s="10">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="K18" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="L18" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="M18" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="N18" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="IF18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/Excel/PublicQiangHuaConfig.xlsx
+++ b/Excel/PublicQiangHuaConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25762B54-61A4-4011-9272-48C408BA4DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3CCDAB-34B5-437D-8529-5B28C3B128F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipQiangHuaProto" sheetId="1" r:id="rId1"/>
@@ -742,7 +742,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="60">
   <si>
     <t>Id</t>
   </si>
@@ -808,50 +808,6 @@
   </si>
   <si>
     <t>double</t>
-  </si>
-  <si>
-    <t>一级血石</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>二级血石</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>三级血石</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>四级血石</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>五级血石</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>六级血石</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>七级血石</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>八级血石</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>九级血石</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>十级血石</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>零级血石</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>升级等级限制</t>
@@ -874,38 +830,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>keji_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>keji_2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>keji_3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>keji_4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>keji_5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>keji_6</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>keji_7</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>keji_8</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>c</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -968,6 +892,44 @@
   </si>
   <si>
     <t>100203;20000</t>
+  </si>
+  <si>
+    <t>0级生命石</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级生命石</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2级生命石</t>
+  </si>
+  <si>
+    <t>3级生命石</t>
+  </si>
+  <si>
+    <t>4级生命石</t>
+  </si>
+  <si>
+    <t>5级生命石</t>
+  </si>
+  <si>
+    <t>6级生命石</t>
+  </si>
+  <si>
+    <t>7级生命石</t>
+  </si>
+  <si>
+    <t>8级生命石</t>
+  </si>
+  <si>
+    <t>9级生命石</t>
+  </si>
+  <si>
+    <t>10级生命石</t>
+  </si>
+  <si>
+    <t>xueshi_1</t>
   </si>
 </sst>
 </file>
@@ -2364,7 +2326,7 @@
   <dimension ref="C1:IF16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -2382,7 +2344,7 @@
     <row r="1" spans="3:240" s="1" customFormat="1" ht="14.25"/>
     <row r="2" spans="3:240" ht="13.5" customHeight="1">
       <c r="D2" s="4" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="E2" s="4"/>
     </row>
@@ -2394,10 +2356,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>2</v>
@@ -2406,7 +2368,7 @@
         <v>3</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>4</v>
@@ -2432,7 +2394,7 @@
         <v>9</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>17</v>
@@ -2470,7 +2432,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>19</v>
@@ -2505,10 +2467,10 @@
         <v>10100</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="F6" s="12">
         <v>1</v>
@@ -2529,7 +2491,7 @@
         <v>25000000</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="M6" s="10">
         <v>0</v>
@@ -2543,10 +2505,10 @@
         <v>10101</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="F7" s="12">
         <v>1</v>
@@ -2567,10 +2529,10 @@
         <v>50000000</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="N7" s="12">
         <v>0</v>
@@ -2581,10 +2543,10 @@
         <v>10102</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="F8" s="12">
         <v>1</v>
@@ -2605,10 +2567,10 @@
         <v>75000000</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="N8" s="12">
         <v>0</v>
@@ -2620,10 +2582,10 @@
         <v>10103</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="F9" s="12">
         <v>1</v>
@@ -2644,10 +2606,10 @@
         <v>100000000</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="N9" s="12">
         <v>0</v>
@@ -2659,10 +2621,10 @@
         <v>10104</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="F10" s="12">
         <v>1</v>
@@ -2683,10 +2645,10 @@
         <v>125000000</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="N10" s="12">
         <v>0</v>
@@ -2698,10 +2660,10 @@
         <v>10105</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="F11" s="12">
         <v>1</v>
@@ -2722,10 +2684,10 @@
         <v>150000000</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="N11" s="12">
         <v>0</v>
@@ -2737,10 +2699,10 @@
         <v>10106</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="F12" s="12">
         <v>1</v>
@@ -2761,10 +2723,10 @@
         <v>175000000</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="N12" s="12">
         <v>0</v>
@@ -2776,10 +2738,10 @@
         <v>10107</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F13" s="12">
         <v>1</v>
@@ -2800,10 +2762,10 @@
         <v>200000000</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="N13" s="12">
         <v>0</v>
@@ -2815,10 +2777,10 @@
         <v>10108</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="F14" s="12">
         <v>1</v>
@@ -2839,10 +2801,10 @@
         <v>250000000</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="N14" s="12">
         <v>0</v>
@@ -2854,10 +2816,10 @@
         <v>10109</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="F15" s="12">
         <v>1</v>
@@ -2878,10 +2840,10 @@
         <v>300000000</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="N15" s="12">
         <v>0</v>
@@ -2893,10 +2855,10 @@
         <v>10110</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="F16" s="12">
         <v>1</v>
@@ -2917,10 +2879,10 @@
         <v>300000000</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="N16" s="12">
         <v>0</v>

--- a/Excel/PublicQiangHuaConfig.xlsx
+++ b/Excel/PublicQiangHuaConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3CCDAB-34B5-437D-8529-5B28C3B128F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5B0BED-A422-44EF-B56D-CAEEEBE1B9D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -867,28 +867,10 @@
     <t>100203;10000</t>
   </si>
   <si>
-    <t>100203;1000</t>
-  </si>
-  <si>
     <t>100203;2000</t>
   </si>
   <si>
-    <t>100203;3500</t>
-  </si>
-  <si>
-    <t>100203;5000</t>
-  </si>
-  <si>
-    <t>100203;7500</t>
-  </si>
-  <si>
-    <t>100203;12500</t>
-  </si>
-  <si>
     <t>100203;15000</t>
-  </si>
-  <si>
-    <t>100203;17500</t>
   </si>
   <si>
     <t>100203;20000</t>
@@ -930,6 +912,24 @@
   </si>
   <si>
     <t>xueshi_1</t>
+  </si>
+  <si>
+    <t>100203;4000</t>
+  </si>
+  <si>
+    <t>100203;7000</t>
+  </si>
+  <si>
+    <t>100203;25000</t>
+  </si>
+  <si>
+    <t>100203;30000</t>
+  </si>
+  <si>
+    <t>100203;35000</t>
+  </si>
+  <si>
+    <t>100203;40000</t>
   </si>
 </sst>
 </file>
@@ -2323,10 +2323,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:IF16"/>
+  <dimension ref="C1:IB16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -2338,17 +2338,17 @@
     <col min="12" max="12" width="21.875" style="3" customWidth="1"/>
     <col min="13" max="13" width="24.875" style="3" customWidth="1"/>
     <col min="14" max="14" width="21.75" style="3" customWidth="1"/>
-    <col min="15" max="240" width="8.875" style="3" customWidth="1"/>
+    <col min="15" max="236" width="8.875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:240" s="1" customFormat="1" ht="14.25"/>
-    <row r="2" spans="3:240" ht="13.5" customHeight="1">
+    <row r="1" spans="3:236" s="1" customFormat="1" ht="14.25"/>
+    <row r="2" spans="3:236" ht="13.5" customHeight="1">
       <c r="D2" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="3:236" ht="20.100000000000001" customHeight="1">
       <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="3:236" ht="20.100000000000001" customHeight="1">
       <c r="C4" s="5" t="s">
         <v>0</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="3:240" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="3:236" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C5" s="5" t="s">
         <v>19</v>
       </c>
@@ -2462,15 +2462,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="3:236" ht="20.100000000000001" customHeight="1">
       <c r="C6" s="8">
         <v>10100</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F6" s="12">
         <v>1</v>
@@ -2500,15 +2500,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="3:236" ht="20.100000000000001" customHeight="1">
       <c r="C7" s="8">
         <v>10101</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F7" s="12">
         <v>1</v>
@@ -2538,15 +2538,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="3:236" ht="20.100000000000001" customHeight="1">
       <c r="C8" s="8">
         <v>10102</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F8" s="12">
         <v>1</v>
@@ -2570,22 +2570,22 @@
         <v>30</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="N8" s="12">
         <v>0</v>
       </c>
-      <c r="IF8"/>
+      <c r="IB8"/>
     </row>
-    <row r="9" spans="3:240" ht="19.5" customHeight="1">
+    <row r="9" spans="3:236" ht="19.5" customHeight="1">
       <c r="C9" s="8">
         <v>10103</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F9" s="12">
         <v>1</v>
@@ -2609,22 +2609,22 @@
         <v>31</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="N9" s="12">
         <v>0</v>
       </c>
-      <c r="IF9"/>
+      <c r="IB9"/>
     </row>
-    <row r="10" spans="3:240" ht="19.5" customHeight="1">
+    <row r="10" spans="3:236" ht="19.5" customHeight="1">
       <c r="C10" s="8">
         <v>10104</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F10" s="12">
         <v>1</v>
@@ -2648,22 +2648,22 @@
         <v>32</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="N10" s="12">
         <v>0</v>
       </c>
-      <c r="IF10"/>
+      <c r="IB10"/>
     </row>
-    <row r="11" spans="3:240" ht="19.5" customHeight="1">
+    <row r="11" spans="3:236" ht="19.5" customHeight="1">
       <c r="C11" s="8">
         <v>10105</v>
       </c>
       <c r="D11" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>53</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="F11" s="12">
         <v>1</v>
@@ -2687,22 +2687,22 @@
         <v>33</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N11" s="12">
         <v>0</v>
       </c>
-      <c r="IF11"/>
+      <c r="IB11"/>
     </row>
-    <row r="12" spans="3:240" ht="19.5" customHeight="1">
+    <row r="12" spans="3:236" ht="19.5" customHeight="1">
       <c r="C12" s="8">
         <v>10106</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F12" s="12">
         <v>1</v>
@@ -2726,22 +2726,22 @@
         <v>34</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="N12" s="12">
         <v>0</v>
       </c>
-      <c r="IF12"/>
+      <c r="IB12"/>
     </row>
-    <row r="13" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="3:236" ht="20.100000000000001" customHeight="1">
       <c r="C13" s="8">
         <v>10107</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F13" s="12">
         <v>1</v>
@@ -2765,22 +2765,22 @@
         <v>35</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="N13" s="12">
         <v>0</v>
       </c>
-      <c r="IF13"/>
+      <c r="IB13"/>
     </row>
-    <row r="14" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="3:236" ht="20.100000000000001" customHeight="1">
       <c r="C14" s="8">
         <v>10108</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F14" s="12">
         <v>1</v>
@@ -2804,22 +2804,22 @@
         <v>36</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="N14" s="12">
         <v>0</v>
       </c>
-      <c r="IF14"/>
+      <c r="IB14"/>
     </row>
-    <row r="15" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="3:236" ht="20.100000000000001" customHeight="1">
       <c r="C15" s="8">
         <v>10109</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F15" s="12">
         <v>1</v>
@@ -2843,22 +2843,22 @@
         <v>37</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="N15" s="12">
         <v>0</v>
       </c>
-      <c r="IF15"/>
+      <c r="IB15"/>
     </row>
-    <row r="16" spans="3:240" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="3:236" ht="20.100000000000001" customHeight="1">
       <c r="C16" s="8">
         <v>10110</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F16" s="12">
         <v>1</v>
@@ -2882,12 +2882,12 @@
         <v>37</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="N16" s="12">
         <v>0</v>
       </c>
-      <c r="IF16"/>
+      <c r="IB16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/Excel/PublicQiangHuaConfig.xlsx
+++ b/Excel/PublicQiangHuaConfig.xlsx
@@ -1,39 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5B0BED-A422-44EF-B56D-CAEEEBE1B9D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="EquipQiangHuaProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Admin</author>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="F3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -42,7 +48,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -51,567 +56,72 @@
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="M3" authorId="1">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">10.生命值
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">11.物理攻击       
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">14.魔法攻击
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">17.物理防御        
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">20.魔法防御
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">30.暴击
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">31.命中
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">32.闪避
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">33.物理免伤
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">34.魔法免伤
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">35.移动速度
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">36.伤害减免
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">50:血量百分比
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">51：物攻百分比
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">52：魔攻百分比
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">53：物防百分比
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">54：魔防百分比
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">101：格挡值
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">111：重击概率
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">112:  重击附加伤害值
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">121:  每次普通攻击附加的伤害值
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">131:  忽视目标防御值   
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">132:  忽视目标魔防值
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">133:  忽视目标百分比防御值
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">134:  忽视目标百分比魔防值
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">141:  吸血概率
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">151:  法术反击
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">152:  攻击反击
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">161：韧性
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">201：初始暴击等级
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">202：初始韧性等级
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">203：初始命中等级
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">204：初始闪避等级
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">301:光抗性
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">302:暗抗性
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">303:火抗性
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">304:水抗性
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">305:电抗性
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">321：//野兽攻击抗性
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">322：//人物攻击抗性
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">323：//恶魔攻击抗性
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">401：//经验加成
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">402：//金币加成
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">403：//洗炼极品掉落
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">404：//隐藏属性出现概率
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t>405：//装备上的宝石槽位出现概率</t>
+          <t>作者:
+10.生命值
+11.物理攻击       
+14.魔法攻击
+17.物理防御        
+20.魔法防御
+30.暴击
+31.命中
+32.闪避
+33.物理免伤
+34.魔法免伤
+35.移动速度
+36.伤害减免
+50:血量百分比
+51：物攻百分比
+52：魔攻百分比
+53：物防百分比
+54：魔防百分比
+101：格挡值
+111：重击概率
+112:  重击附加伤害值
+121:  每次普通攻击附加的伤害值
+131:  忽视目标防御值   
+132:  忽视目标魔防值
+133:  忽视目标百分比防御值
+134:  忽视目标百分比魔防值
+141:  吸血概率
+151:  法术反击
+152:  攻击反击
+161：韧性
+201：初始暴击等级
+202：初始韧性等级
+203：初始命中等级
+204：初始闪避等级
+301:光抗性
+302:暗抗性
+303:火抗性
+304:水抗性
+305:电抗性
+321：//野兽攻击抗性
+322：//人物攻击抗性
+323：//恶魔攻击抗性
+401：//经验加成
+402：//金币加成
+403：//洗炼极品掉落
+404：//隐藏属性出现概率
+405：//装备上的宝石槽位出现概率</t>
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="N3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -620,120 +130,20 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">//1 武器
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">        //2 衣服
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">        //3 护符
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">        //4 戒指
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">        //5 饰品
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">        //6 鞋子
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">        //7 裤子
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">        //8 腰带
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">        //9 手镯
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">        //10 头盔
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">        //11 项链</t>
+//1 武器
+        //2 衣服
+        //3 护符
+        //4 戒指
+        //5 饰品
+        //6 鞋子
+        //7 裤子
+        //8 腰带
+        //9 手镯
+        //10 头盔
+        //11 项链</t>
         </r>
       </text>
     </comment>
@@ -742,7 +152,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="69">
+  <si>
+    <t>c</t>
+  </si>
   <si>
     <t>Id</t>
   </si>
@@ -750,12 +163,21 @@
     <t>装备名称</t>
   </si>
   <si>
+    <t>图标</t>
+  </si>
+  <si>
+    <t>强化类型</t>
+  </si>
+  <si>
     <t>下一级强化</t>
   </si>
   <si>
     <t>强化等级</t>
   </si>
   <si>
+    <t>升级等级限制</t>
+  </si>
+  <si>
     <t>成功概率</t>
   </si>
   <si>
@@ -774,6 +196,12 @@
     <t>EquipSpaceName</t>
   </si>
   <si>
+    <t>Icon</t>
+  </si>
+  <si>
+    <t>ItemSubType</t>
+  </si>
+  <si>
     <t>NextID</t>
   </si>
   <si>
@@ -795,9 +223,6 @@
     <t>EquipPropreAdd</t>
   </si>
   <si>
-    <t>ItemSubType</t>
-  </si>
-  <si>
     <t>AdditionPro</t>
   </si>
   <si>
@@ -810,133 +235,143 @@
     <t>double</t>
   </si>
   <si>
-    <t>升级等级限制</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>强化类型</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>图标</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <t>0级生命石</t>
+  </si>
+  <si>
+    <t>xueshi_1</t>
   </si>
   <si>
     <t>10000143;150</t>
   </si>
   <si>
+    <t>1级生命石</t>
+  </si>
+  <si>
     <t>10000143;200</t>
   </si>
   <si>
+    <t>100203;2000</t>
+  </si>
+  <si>
+    <t>2级生命石</t>
+  </si>
+  <si>
     <t>10000143;300</t>
   </si>
   <si>
+    <t>100203;4000</t>
+  </si>
+  <si>
+    <t>3级生命石</t>
+  </si>
+  <si>
     <t>10000143;400</t>
   </si>
   <si>
+    <t>100203;7000</t>
+  </si>
+  <si>
+    <t>4级生命石</t>
+  </si>
+  <si>
     <t>10000143;500</t>
   </si>
   <si>
+    <t>100203;10000</t>
+  </si>
+  <si>
+    <t>5级生命石</t>
+  </si>
+  <si>
     <t>10000152;200</t>
   </si>
   <si>
+    <t>100203;15000</t>
+  </si>
+  <si>
+    <t>6级生命石</t>
+  </si>
+  <si>
     <t>10000152;300</t>
   </si>
   <si>
+    <t>100203;20000</t>
+  </si>
+  <si>
+    <t>7级生命石</t>
+  </si>
+  <si>
     <t>10000152;400</t>
   </si>
   <si>
+    <t>100203;25000</t>
+  </si>
+  <si>
+    <t>8级生命石</t>
+  </si>
+  <si>
     <t>10000152;450</t>
   </si>
   <si>
+    <t>100203;30000</t>
+  </si>
+  <si>
+    <t>9级生命石</t>
+  </si>
+  <si>
     <t>10000152;500</t>
   </si>
   <si>
-    <t>100203;10000</t>
-  </si>
-  <si>
-    <t>100203;2000</t>
-  </si>
-  <si>
-    <t>100203;15000</t>
-  </si>
-  <si>
-    <t>100203;20000</t>
-  </si>
-  <si>
-    <t>0级生命石</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1级生命石</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2级生命石</t>
-  </si>
-  <si>
-    <t>3级生命石</t>
-  </si>
-  <si>
-    <t>4级生命石</t>
-  </si>
-  <si>
-    <t>5级生命石</t>
-  </si>
-  <si>
-    <t>6级生命石</t>
-  </si>
-  <si>
-    <t>7级生命石</t>
-  </si>
-  <si>
-    <t>8级生命石</t>
-  </si>
-  <si>
-    <t>9级生命石</t>
+    <t>100203;35000</t>
   </si>
   <si>
     <t>10级生命石</t>
   </si>
   <si>
-    <t>xueshi_1</t>
-  </si>
-  <si>
-    <t>100203;4000</t>
-  </si>
-  <si>
-    <t>100203;7000</t>
-  </si>
-  <si>
-    <t>100203;25000</t>
-  </si>
-  <si>
-    <t>100203;30000</t>
-  </si>
-  <si>
-    <t>100203;35000</t>
-  </si>
-  <si>
     <t>100203;40000</t>
+  </si>
+  <si>
+    <t>0级伤害加成</t>
+  </si>
+  <si>
+    <t>1级伤害加成</t>
+  </si>
+  <si>
+    <t>200903;2000</t>
+  </si>
+  <si>
+    <t>2级伤害加成</t>
+  </si>
+  <si>
+    <t>200903;4000</t>
+  </si>
+  <si>
+    <t>0级伤害减免</t>
+  </si>
+  <si>
+    <t>1级伤害减免</t>
+  </si>
+  <si>
+    <t>201003;2000</t>
+  </si>
+  <si>
+    <t>2级伤害减免</t>
+  </si>
+  <si>
+    <t>201003;4000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -947,21 +382,18 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -969,37 +401,184 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1024,8 +603,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1114,9 +879,7 @@
         <color indexed="12"/>
       </right>
       <top/>
-      <bottom style="hair">
-        <color indexed="12"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1127,12 +890,256 @@
         <color indexed="12"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="hair">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1155,12 +1162,12 @@
     <xf numFmtId="49" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1168,10 +1175,57 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
@@ -1244,9 +1298,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2317,16 +2368,16 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:IB16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C1:IB22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -2341,558 +2392,783 @@
     <col min="15" max="236" width="8.875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:236" s="1" customFormat="1" ht="14.25"/>
-    <row r="2" spans="3:236" ht="13.5" customHeight="1">
+    <row r="1" s="1" customFormat="1" ht="14.25"/>
+    <row r="2" customHeight="1" spans="4:5">
       <c r="D2" s="4" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="3:236" ht="20.100000000000001" customHeight="1">
+    <row r="3" ht="20.1" customHeight="1" spans="3:14">
       <c r="C3" s="5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="20.1" customHeight="1" spans="3:14">
+      <c r="C4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="C5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>8</v>
+      <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="4" spans="3:236" ht="20.100000000000001" customHeight="1">
-      <c r="C4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="3:236" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="C5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="3:236" ht="20.100000000000001" customHeight="1">
+    <row r="6" ht="20.1" customHeight="1" spans="3:14">
       <c r="C6" s="8">
         <v>10100</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="12">
+        <v>27</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="11">
         <v>1</v>
       </c>
       <c r="G6" s="8">
         <v>10101</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="12">
         <v>0</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="12">
         <v>60</v>
       </c>
-      <c r="J6" s="10">
-        <v>1</v>
-      </c>
-      <c r="K6" s="10">
+      <c r="J6" s="12">
+        <v>1</v>
+      </c>
+      <c r="K6" s="12">
         <v>25000000</v>
       </c>
-      <c r="L6" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" s="10">
+      <c r="L6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="12">
         <v>0</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:236" ht="20.100000000000001" customHeight="1">
+    <row r="7" ht="20.1" customHeight="1" spans="3:14">
       <c r="C7" s="8">
         <v>10101</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="12">
+        <v>30</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="11">
         <v>1</v>
       </c>
       <c r="G7" s="8">
         <v>10102</v>
       </c>
-      <c r="H7" s="10">
-        <v>1</v>
-      </c>
-      <c r="I7" s="10">
+      <c r="H7" s="12">
+        <v>1</v>
+      </c>
+      <c r="I7" s="12">
         <v>60</v>
       </c>
-      <c r="J7" s="10">
-        <v>1</v>
-      </c>
-      <c r="K7" s="10">
+      <c r="J7" s="12">
+        <v>1</v>
+      </c>
+      <c r="K7" s="12">
         <v>50000000</v>
       </c>
-      <c r="L7" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="N7" s="12">
+      <c r="L7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:236" ht="20.100000000000001" customHeight="1">
+    <row r="8" ht="20.1" customHeight="1" spans="3:236">
       <c r="C8" s="8">
         <v>10102</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="12">
+        <v>33</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="11">
         <v>1</v>
       </c>
       <c r="G8" s="8">
         <v>10103</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="12">
         <v>2</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="12">
         <v>60</v>
       </c>
-      <c r="J8" s="10">
-        <v>1</v>
-      </c>
-      <c r="K8" s="10">
+      <c r="J8" s="12">
+        <v>1</v>
+      </c>
+      <c r="K8" s="12">
         <v>75000000</v>
       </c>
-      <c r="L8" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="N8" s="12">
+      <c r="L8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="11">
         <v>0</v>
       </c>
       <c r="IB8"/>
     </row>
-    <row r="9" spans="3:236" ht="19.5" customHeight="1">
+    <row r="9" ht="19.5" customHeight="1" spans="3:236">
       <c r="C9" s="8">
         <v>10103</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="12">
+        <v>36</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="11">
         <v>1</v>
       </c>
       <c r="G9" s="8">
         <v>10104</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="12">
         <v>3</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="12">
         <v>60</v>
       </c>
-      <c r="J9" s="10">
-        <v>1</v>
-      </c>
-      <c r="K9" s="10">
+      <c r="J9" s="12">
+        <v>1</v>
+      </c>
+      <c r="K9" s="12">
         <v>100000000</v>
       </c>
-      <c r="L9" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="N9" s="12">
+      <c r="L9" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="N9" s="11">
         <v>0</v>
       </c>
       <c r="IB9"/>
     </row>
-    <row r="10" spans="3:236" ht="19.5" customHeight="1">
+    <row r="10" ht="19.5" customHeight="1" spans="3:236">
       <c r="C10" s="8">
         <v>10104</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="12">
+        <v>39</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="11">
         <v>1</v>
       </c>
       <c r="G10" s="8">
         <v>10105</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="12">
         <v>4</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="12">
         <v>60</v>
       </c>
-      <c r="J10" s="10">
-        <v>1</v>
-      </c>
-      <c r="K10" s="10">
+      <c r="J10" s="12">
+        <v>1</v>
+      </c>
+      <c r="K10" s="12">
         <v>125000000</v>
       </c>
-      <c r="L10" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="N10" s="12">
+      <c r="L10" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10" s="11">
         <v>0</v>
       </c>
       <c r="IB10"/>
     </row>
-    <row r="11" spans="3:236" ht="19.5" customHeight="1">
+    <row r="11" ht="19.5" customHeight="1" spans="3:236">
       <c r="C11" s="8">
         <v>10105</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="12">
+        <v>42</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="11">
         <v>1</v>
       </c>
       <c r="G11" s="8">
         <v>10106</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="12">
         <v>5</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="12">
         <v>60</v>
       </c>
-      <c r="J11" s="10">
-        <v>1</v>
-      </c>
-      <c r="K11" s="10">
+      <c r="J11" s="12">
+        <v>1</v>
+      </c>
+      <c r="K11" s="12">
         <v>150000000</v>
       </c>
-      <c r="L11" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="M11" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="N11" s="12">
+      <c r="L11" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N11" s="11">
         <v>0</v>
       </c>
       <c r="IB11"/>
     </row>
-    <row r="12" spans="3:236" ht="19.5" customHeight="1">
+    <row r="12" ht="19.5" customHeight="1" spans="3:236">
       <c r="C12" s="8">
         <v>10106</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="12">
+        <v>45</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="11">
         <v>1</v>
       </c>
       <c r="G12" s="8">
         <v>10107</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="12">
         <v>6</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="12">
         <v>60</v>
       </c>
-      <c r="J12" s="10">
-        <v>1</v>
-      </c>
-      <c r="K12" s="10">
+      <c r="J12" s="12">
+        <v>1</v>
+      </c>
+      <c r="K12" s="12">
         <v>175000000</v>
       </c>
-      <c r="L12" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="M12" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="N12" s="12">
+      <c r="L12" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="N12" s="11">
         <v>0</v>
       </c>
       <c r="IB12"/>
     </row>
-    <row r="13" spans="3:236" ht="20.100000000000001" customHeight="1">
+    <row r="13" ht="20.1" customHeight="1" spans="3:236">
       <c r="C13" s="8">
         <v>10107</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="12">
+        <v>48</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="11">
         <v>1</v>
       </c>
       <c r="G13" s="8">
         <v>10108</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="12">
         <v>7</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="12">
         <v>60</v>
       </c>
-      <c r="J13" s="10">
-        <v>1</v>
-      </c>
-      <c r="K13" s="10">
+      <c r="J13" s="12">
+        <v>1</v>
+      </c>
+      <c r="K13" s="12">
         <v>200000000</v>
       </c>
-      <c r="L13" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="M13" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="N13" s="12">
+      <c r="L13" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="N13" s="11">
         <v>0</v>
       </c>
       <c r="IB13"/>
     </row>
-    <row r="14" spans="3:236" ht="20.100000000000001" customHeight="1">
+    <row r="14" ht="20.1" customHeight="1" spans="3:236">
       <c r="C14" s="8">
         <v>10108</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="12">
+        <v>51</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="11">
         <v>1</v>
       </c>
       <c r="G14" s="8">
         <v>10109</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="12">
         <v>8</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="12">
         <v>60</v>
       </c>
-      <c r="J14" s="10">
-        <v>1</v>
-      </c>
-      <c r="K14" s="10">
+      <c r="J14" s="12">
+        <v>1</v>
+      </c>
+      <c r="K14" s="12">
         <v>250000000</v>
       </c>
-      <c r="L14" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="M14" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="N14" s="12">
+      <c r="L14" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="N14" s="11">
         <v>0</v>
       </c>
       <c r="IB14"/>
     </row>
-    <row r="15" spans="3:236" ht="20.100000000000001" customHeight="1">
+    <row r="15" ht="20.1" customHeight="1" spans="3:236">
       <c r="C15" s="8">
         <v>10109</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="12">
+        <v>54</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="11">
         <v>1</v>
       </c>
       <c r="G15" s="8">
         <v>10110</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="12">
         <v>9</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="12">
         <v>60</v>
       </c>
-      <c r="J15" s="10">
-        <v>1</v>
-      </c>
-      <c r="K15" s="10">
+      <c r="J15" s="12">
+        <v>1</v>
+      </c>
+      <c r="K15" s="12">
         <v>300000000</v>
       </c>
-      <c r="L15" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="M15" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="N15" s="12">
+      <c r="L15" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="N15" s="11">
         <v>0</v>
       </c>
       <c r="IB15"/>
     </row>
-    <row r="16" spans="3:236" ht="20.100000000000001" customHeight="1">
+    <row r="16" ht="20.1" customHeight="1" spans="3:236">
       <c r="C16" s="8">
         <v>10110</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="12">
+        <v>57</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="11">
         <v>1</v>
       </c>
       <c r="G16" s="8">
         <v>0</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="12">
         <v>10</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="12">
         <v>60</v>
       </c>
-      <c r="J16" s="10">
-        <v>1</v>
-      </c>
-      <c r="K16" s="10">
+      <c r="J16" s="12">
+        <v>1</v>
+      </c>
+      <c r="K16" s="12">
         <v>300000000</v>
       </c>
-      <c r="L16" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="M16" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="N16" s="12">
+      <c r="L16" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="N16" s="11">
         <v>0</v>
       </c>
       <c r="IB16"/>
     </row>
+    <row r="17" ht="20.1" customHeight="1" spans="3:14">
+      <c r="C17" s="8">
+        <v>20100</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="11">
+        <v>1</v>
+      </c>
+      <c r="G17" s="8">
+        <v>20101</v>
+      </c>
+      <c r="H17" s="12">
+        <v>0</v>
+      </c>
+      <c r="I17" s="12">
+        <v>60</v>
+      </c>
+      <c r="J17" s="12">
+        <v>1</v>
+      </c>
+      <c r="K17" s="12">
+        <v>25000000</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M17" s="12">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" ht="20.1" customHeight="1" spans="3:14">
+      <c r="C18" s="8">
+        <v>20101</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="11">
+        <v>1</v>
+      </c>
+      <c r="G18" s="8">
+        <v>20102</v>
+      </c>
+      <c r="H18" s="12">
+        <v>1</v>
+      </c>
+      <c r="I18" s="12">
+        <v>60</v>
+      </c>
+      <c r="J18" s="12">
+        <v>1</v>
+      </c>
+      <c r="K18" s="12">
+        <v>50000000</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="N18" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" ht="20.1" customHeight="1" spans="3:236">
+      <c r="C19" s="8">
+        <v>20102</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="11">
+        <v>1</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="12">
+        <v>2</v>
+      </c>
+      <c r="I19" s="12">
+        <v>60</v>
+      </c>
+      <c r="J19" s="12">
+        <v>1</v>
+      </c>
+      <c r="K19" s="12">
+        <v>75000000</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="N19" s="11">
+        <v>0</v>
+      </c>
+      <c r="IB19"/>
+    </row>
+    <row r="20" ht="20.1" customHeight="1" spans="3:14">
+      <c r="C20" s="8">
+        <v>30100</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="11">
+        <v>1</v>
+      </c>
+      <c r="G20" s="8">
+        <v>30101</v>
+      </c>
+      <c r="H20" s="12">
+        <v>0</v>
+      </c>
+      <c r="I20" s="12">
+        <v>60</v>
+      </c>
+      <c r="J20" s="12">
+        <v>1</v>
+      </c>
+      <c r="K20" s="12">
+        <v>25000000</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M20" s="12">
+        <v>0</v>
+      </c>
+      <c r="N20" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" ht="20.1" customHeight="1" spans="3:14">
+      <c r="C21" s="8">
+        <v>30101</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="11">
+        <v>1</v>
+      </c>
+      <c r="G21" s="8">
+        <v>30102</v>
+      </c>
+      <c r="H21" s="12">
+        <v>1</v>
+      </c>
+      <c r="I21" s="12">
+        <v>60</v>
+      </c>
+      <c r="J21" s="12">
+        <v>1</v>
+      </c>
+      <c r="K21" s="12">
+        <v>50000000</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M21" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="N21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="20.1" customHeight="1" spans="3:236">
+      <c r="C22" s="8">
+        <v>30102</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="11">
+        <v>1</v>
+      </c>
+      <c r="G22" s="8"/>
+      <c r="H22" s="12">
+        <v>2</v>
+      </c>
+      <c r="I22" s="12">
+        <v>60</v>
+      </c>
+      <c r="J22" s="12">
+        <v>1</v>
+      </c>
+      <c r="K22" s="12">
+        <v>75000000</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M22" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="N22" s="11">
+        <v>0</v>
+      </c>
+      <c r="IB22"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/Excel/PublicQiangHuaConfig.xlsx
+++ b/Excel/PublicQiangHuaConfig.xlsx
@@ -337,13 +337,13 @@
     <t>1级伤害加成</t>
   </si>
   <si>
-    <t>200903;2000</t>
+    <t>200903;20</t>
   </si>
   <si>
     <t>2级伤害加成</t>
   </si>
   <si>
-    <t>200903;4000</t>
+    <t>200903;40</t>
   </si>
   <si>
     <t>0级伤害减免</t>
@@ -352,13 +352,13 @@
     <t>1级伤害减免</t>
   </si>
   <si>
-    <t>201003;2000</t>
+    <t>201003;20</t>
   </si>
   <si>
     <t>2级伤害减免</t>
   </si>
   <si>
-    <t>201003;4000</t>
+    <t>201003;40</t>
   </si>
 </sst>
 </file>
@@ -371,7 +371,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -387,12 +387,6 @@
     <font>
       <sz val="10"/>
       <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -996,148 +990,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1148,30 +1142,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2376,8 +2370,8 @@
   <sheetPr/>
   <dimension ref="C1:IB22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>

--- a/Excel/PublicQiangHuaConfig.xlsx
+++ b/Excel/PublicQiangHuaConfig.xlsx
@@ -1,45 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623AD438-805E-4A99-92F9-FC68CF374065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipQiangHuaProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Admin</author>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0">
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -48,6 +42,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -56,72 +51,1100 @@
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="1">
+    <comment ref="M3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:
-10.生命值
-11.物理攻击       
-14.魔法攻击
-17.物理防御        
-20.魔法防御
-30.暴击
-31.命中
-32.闪避
-33.物理免伤
-34.魔法免伤
-35.移动速度
-36.伤害减免
-50:血量百分比
-51：物攻百分比
-52：魔攻百分比
-53：物防百分比
-54：魔防百分比
-101：格挡值
-111：重击概率
-112:  重击附加伤害值
-121:  每次普通攻击附加的伤害值
-131:  忽视目标防御值   
-132:  忽视目标魔防值
-133:  忽视目标百分比防御值
-134:  忽视目标百分比魔防值
-141:  吸血概率
-151:  法术反击
-152:  攻击反击
-161：韧性
-201：初始暴击等级
-202：初始韧性等级
-203：初始命中等级
-204：初始闪避等级
-301:光抗性
-302:暗抗性
-303:火抗性
-304:水抗性
-305:电抗性
-321：//野兽攻击抗性
-322：//人物攻击抗性
-323：//恶魔攻击抗性
-401：//经验加成
-402：//金币加成
-403：//洗炼极品掉落
-404：//隐藏属性出现概率
-405：//装备上的宝石槽位出现概率</t>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t>:
+10.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">生命值
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t>11.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>物理攻击</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">       
+14.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">魔法攻击
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t>17.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>物理防御</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">        
+20.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">魔法防御
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t>30.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">暴击
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t>31.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">命中
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t>32.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">闪避
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t>33.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">物理免伤
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t>34.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">魔法免伤
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t>35.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">移动速度
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t>36.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">伤害减免
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t>50:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">血量百分比
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t>51</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">：物攻百分比
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t>52</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">：魔攻百分比
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t>53</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">：物防百分比
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t>54</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">：魔防百分比
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t>101</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">：格挡值
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t>111</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">：重击概率
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">112:  </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">重击附加伤害值
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">121:  </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">每次普通攻击附加的伤害值
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">131:  </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>忽视目标防御值</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">   
+132:  </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">忽视目标魔防值
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">133:  </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">忽视目标百分比防御值
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">134:  </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">忽视目标百分比魔防值
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">141:  </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">吸血概率
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">151:  </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">法术反击
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">152:  </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">攻击反击
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t>161</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">：韧性
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t>201</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">：初始暴击等级
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t>202</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">：初始韧性等级
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t>203</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">：初始命中等级
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t>204</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">：初始闪避等级
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t>301:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">光抗性
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t>302:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">暗抗性
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t>303:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">火抗性
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t>304:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">水抗性
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t>305:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">电抗性
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t>321</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>：</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t>//</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">野兽攻击抗性
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t>322</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>：</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t>//</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">人物攻击抗性
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t>323</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>：</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t>//</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">恶魔攻击抗性
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t>401</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>：</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t>//</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">经验加成
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t>402</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>：</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t>//</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">金币加成
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t>403</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>：</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t>//</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">洗炼极品掉落
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t>404</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>：</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t>//</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">隐藏属性出现概率
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t>405</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>：</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t>//</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>装备上的宝石槽位出现概率</t>
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="0">
+    <comment ref="N3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -130,6 +1153,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -152,7 +1176,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="112">
   <si>
     <t>c</t>
   </si>
@@ -337,41 +1361,166 @@
     <t>1级伤害加成</t>
   </si>
   <si>
-    <t>200903;20</t>
-  </si>
-  <si>
     <t>2级伤害加成</t>
   </si>
   <si>
-    <t>200903;40</t>
-  </si>
-  <si>
     <t>0级伤害减免</t>
   </si>
   <si>
     <t>1级伤害减免</t>
   </si>
   <si>
-    <t>201003;20</t>
-  </si>
-  <si>
     <t>2级伤害减免</t>
   </si>
   <si>
-    <t>201003;40</t>
+    <t>3级伤害加成</t>
+  </si>
+  <si>
+    <t>4级伤害加成</t>
+  </si>
+  <si>
+    <t>5级伤害加成</t>
+  </si>
+  <si>
+    <t>6级伤害加成</t>
+  </si>
+  <si>
+    <t>7级伤害加成</t>
+  </si>
+  <si>
+    <t>8级伤害加成</t>
+  </si>
+  <si>
+    <t>9级伤害加成</t>
+  </si>
+  <si>
+    <t>10级伤害加成</t>
+  </si>
+  <si>
+    <t>3级伤害减免</t>
+  </si>
+  <si>
+    <t>4级伤害减免</t>
+  </si>
+  <si>
+    <t>5级伤害减免</t>
+  </si>
+  <si>
+    <t>6级伤害减免</t>
+  </si>
+  <si>
+    <t>7级伤害减免</t>
+  </si>
+  <si>
+    <t>8级伤害减免</t>
+  </si>
+  <si>
+    <t>9级伤害减免</t>
+  </si>
+  <si>
+    <t>10级伤害减免</t>
+  </si>
+  <si>
+    <t>10000179;150</t>
+  </si>
+  <si>
+    <t>10000179;300</t>
+  </si>
+  <si>
+    <t>10000179;30</t>
+  </si>
+  <si>
+    <t>10000179;50</t>
+  </si>
+  <si>
+    <t>10000179;75</t>
+  </si>
+  <si>
+    <t>10000179;100</t>
+  </si>
+  <si>
+    <t>10000179;125</t>
+  </si>
+  <si>
+    <t>10000179;180</t>
+  </si>
+  <si>
+    <t>10000179;210</t>
+  </si>
+  <si>
+    <t>10000179;240</t>
+  </si>
+  <si>
+    <t>10000179;270</t>
+  </si>
+  <si>
+    <t>200903;0.01</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>200903;0.02</t>
+  </si>
+  <si>
+    <t>200903;0.03</t>
+  </si>
+  <si>
+    <t>200903;0.04</t>
+  </si>
+  <si>
+    <t>200903;0.05</t>
+  </si>
+  <si>
+    <t>200903;0.06</t>
+  </si>
+  <si>
+    <t>200903;0.07</t>
+  </si>
+  <si>
+    <t>200903;0.08</t>
+  </si>
+  <si>
+    <t>200903;0.09</t>
+  </si>
+  <si>
+    <t>200903;0.10</t>
+  </si>
+  <si>
+    <t>201003;0.01</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>201003;0.02</t>
+  </si>
+  <si>
+    <t>201003;0.03</t>
+  </si>
+  <si>
+    <t>201003;0.04</t>
+  </si>
+  <si>
+    <t>201003;0.05</t>
+  </si>
+  <si>
+    <t>201003;0.06</t>
+  </si>
+  <si>
+    <t>201003;0.07</t>
+  </si>
+  <si>
+    <t>201003;0.08</t>
+  </si>
+  <si>
+    <t>201003;0.09</t>
+  </si>
+  <si>
+    <t>201003;0.10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -382,12 +1531,14 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -395,184 +1546,44 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -597,194 +1608,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -889,260 +1714,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1169,57 +1751,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
@@ -1292,6 +1827,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2362,16 +2900,16 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="C1:IB22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C1:N38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -2383,18 +2921,16 @@
     <col min="12" max="12" width="21.875" style="3" customWidth="1"/>
     <col min="13" max="13" width="24.875" style="3" customWidth="1"/>
     <col min="14" max="14" width="21.75" style="3" customWidth="1"/>
-    <col min="15" max="236" width="8.875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25"/>
-    <row r="2" customHeight="1" spans="4:5">
-      <c r="D2" s="4" t="s">
+    <row r="1" spans="3:14" s="1" customFormat="1" ht="14.25"/>
+    <row r="2" spans="3:14" ht="13.5" customHeight="1">
+      <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="4"/>
     </row>
-    <row r="3" ht="20.1" customHeight="1" spans="3:14">
-      <c r="C3" s="5" t="s">
+    <row r="3" spans="3:14" ht="20.100000000000001" customHeight="1">
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -2431,741 +2967,1323 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="20.1" customHeight="1" spans="3:14">
-      <c r="C4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="6" t="s">
+    <row r="4" spans="3:14" ht="20.100000000000001" customHeight="1">
+      <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
-      <c r="C5" s="5" t="s">
+    <row r="5" spans="3:14" ht="20.100000000000001" customHeight="1">
+      <c r="C5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="N5" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" ht="20.1" customHeight="1" spans="3:14">
-      <c r="C6" s="8">
+    <row r="6" spans="3:14" ht="20.100000000000001" customHeight="1">
+      <c r="C6" s="7">
         <v>10100</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="11">
-        <v>1</v>
-      </c>
-      <c r="G6" s="8">
+      <c r="F6" s="10">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7">
         <v>10101</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="11">
         <v>0</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="11">
         <v>60</v>
       </c>
-      <c r="J6" s="12">
-        <v>1</v>
-      </c>
-      <c r="K6" s="12">
+      <c r="J6" s="11">
+        <v>1</v>
+      </c>
+      <c r="K6" s="11">
         <v>25000000</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="L6" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="11">
         <v>0</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="20.1" customHeight="1" spans="3:14">
-      <c r="C7" s="8">
+    <row r="7" spans="3:14" ht="20.100000000000001" customHeight="1">
+      <c r="C7" s="7">
         <v>10101</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="11">
-        <v>1</v>
-      </c>
-      <c r="G7" s="8">
+      <c r="F7" s="10">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7">
         <v>10102</v>
       </c>
-      <c r="H7" s="12">
-        <v>1</v>
-      </c>
-      <c r="I7" s="12">
+      <c r="H7" s="11">
+        <v>1</v>
+      </c>
+      <c r="I7" s="11">
         <v>60</v>
       </c>
-      <c r="J7" s="12">
-        <v>1</v>
-      </c>
-      <c r="K7" s="12">
+      <c r="J7" s="11">
+        <v>1</v>
+      </c>
+      <c r="K7" s="11">
         <v>50000000</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="L7" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="M7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N7" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="20.1" customHeight="1" spans="3:236">
-      <c r="C8" s="8">
+    <row r="8" spans="3:14" ht="20.100000000000001" customHeight="1">
+      <c r="C8" s="7">
         <v>10102</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="11">
-        <v>1</v>
-      </c>
-      <c r="G8" s="8">
+      <c r="F8" s="10">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7">
         <v>10103</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="11">
         <v>2</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="11">
         <v>60</v>
       </c>
-      <c r="J8" s="12">
-        <v>1</v>
-      </c>
-      <c r="K8" s="12">
+      <c r="J8" s="11">
+        <v>1</v>
+      </c>
+      <c r="K8" s="11">
         <v>75000000</v>
       </c>
-      <c r="L8" s="13" t="s">
+      <c r="L8" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="M8" s="12" t="s">
+      <c r="M8" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N8" s="10">
         <v>0</v>
       </c>
-      <c r="IB8"/>
     </row>
-    <row r="9" ht="19.5" customHeight="1" spans="3:236">
-      <c r="C9" s="8">
+    <row r="9" spans="3:14" ht="19.5" customHeight="1">
+      <c r="C9" s="7">
         <v>10103</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="11">
-        <v>1</v>
-      </c>
-      <c r="G9" s="8">
+      <c r="F9" s="10">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7">
         <v>10104</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="11">
         <v>3</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="11">
         <v>60</v>
       </c>
-      <c r="J9" s="12">
-        <v>1</v>
-      </c>
-      <c r="K9" s="12">
+      <c r="J9" s="11">
+        <v>1</v>
+      </c>
+      <c r="K9" s="11">
         <v>100000000</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="L9" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="M9" s="12" t="s">
+      <c r="M9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N9" s="11">
+      <c r="N9" s="10">
         <v>0</v>
       </c>
-      <c r="IB9"/>
     </row>
-    <row r="10" ht="19.5" customHeight="1" spans="3:236">
-      <c r="C10" s="8">
+    <row r="10" spans="3:14" ht="19.5" customHeight="1">
+      <c r="C10" s="7">
         <v>10104</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="11">
-        <v>1</v>
-      </c>
-      <c r="G10" s="8">
+      <c r="F10" s="10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="7">
         <v>10105</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="11">
         <v>4</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="11">
         <v>60</v>
       </c>
-      <c r="J10" s="12">
-        <v>1</v>
-      </c>
-      <c r="K10" s="12">
+      <c r="J10" s="11">
+        <v>1</v>
+      </c>
+      <c r="K10" s="11">
         <v>125000000</v>
       </c>
-      <c r="L10" s="13" t="s">
+      <c r="L10" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="M10" s="12" t="s">
+      <c r="M10" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="N10" s="11">
+      <c r="N10" s="10">
         <v>0</v>
       </c>
-      <c r="IB10"/>
     </row>
-    <row r="11" ht="19.5" customHeight="1" spans="3:236">
-      <c r="C11" s="8">
+    <row r="11" spans="3:14" ht="19.5" customHeight="1">
+      <c r="C11" s="7">
         <v>10105</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="11">
-        <v>1</v>
-      </c>
-      <c r="G11" s="8">
+      <c r="F11" s="10">
+        <v>1</v>
+      </c>
+      <c r="G11" s="7">
         <v>10106</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="11">
         <v>5</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="11">
         <v>60</v>
       </c>
-      <c r="J11" s="12">
-        <v>1</v>
-      </c>
-      <c r="K11" s="12">
+      <c r="J11" s="11">
+        <v>1</v>
+      </c>
+      <c r="K11" s="11">
         <v>150000000</v>
       </c>
-      <c r="L11" s="13" t="s">
+      <c r="L11" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="M11" s="12" t="s">
+      <c r="M11" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="N11" s="11">
+      <c r="N11" s="10">
         <v>0</v>
       </c>
-      <c r="IB11"/>
     </row>
-    <row r="12" ht="19.5" customHeight="1" spans="3:236">
-      <c r="C12" s="8">
+    <row r="12" spans="3:14" ht="19.5" customHeight="1">
+      <c r="C12" s="7">
         <v>10106</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="11">
-        <v>1</v>
-      </c>
-      <c r="G12" s="8">
+      <c r="F12" s="10">
+        <v>1</v>
+      </c>
+      <c r="G12" s="7">
         <v>10107</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="11">
         <v>6</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="11">
         <v>60</v>
       </c>
-      <c r="J12" s="12">
-        <v>1</v>
-      </c>
-      <c r="K12" s="12">
+      <c r="J12" s="11">
+        <v>1</v>
+      </c>
+      <c r="K12" s="11">
         <v>175000000</v>
       </c>
-      <c r="L12" s="13" t="s">
+      <c r="L12" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="M12" s="12" t="s">
+      <c r="M12" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="N12" s="11">
+      <c r="N12" s="10">
         <v>0</v>
       </c>
-      <c r="IB12"/>
     </row>
-    <row r="13" ht="20.1" customHeight="1" spans="3:236">
-      <c r="C13" s="8">
+    <row r="13" spans="3:14" ht="20.100000000000001" customHeight="1">
+      <c r="C13" s="7">
         <v>10107</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="11">
-        <v>1</v>
-      </c>
-      <c r="G13" s="8">
+      <c r="F13" s="10">
+        <v>1</v>
+      </c>
+      <c r="G13" s="7">
         <v>10108</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="11">
         <v>7</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="11">
         <v>60</v>
       </c>
-      <c r="J13" s="12">
-        <v>1</v>
-      </c>
-      <c r="K13" s="12">
+      <c r="J13" s="11">
+        <v>1</v>
+      </c>
+      <c r="K13" s="11">
         <v>200000000</v>
       </c>
-      <c r="L13" s="13" t="s">
+      <c r="L13" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="M13" s="12" t="s">
+      <c r="M13" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="N13" s="11">
+      <c r="N13" s="10">
         <v>0</v>
       </c>
-      <c r="IB13"/>
     </row>
-    <row r="14" ht="20.1" customHeight="1" spans="3:236">
-      <c r="C14" s="8">
+    <row r="14" spans="3:14" ht="20.100000000000001" customHeight="1">
+      <c r="C14" s="7">
         <v>10108</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="11">
-        <v>1</v>
-      </c>
-      <c r="G14" s="8">
+      <c r="F14" s="10">
+        <v>1</v>
+      </c>
+      <c r="G14" s="7">
         <v>10109</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="11">
         <v>8</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="11">
         <v>60</v>
       </c>
-      <c r="J14" s="12">
-        <v>1</v>
-      </c>
-      <c r="K14" s="12">
+      <c r="J14" s="11">
+        <v>1</v>
+      </c>
+      <c r="K14" s="11">
         <v>250000000</v>
       </c>
-      <c r="L14" s="13" t="s">
+      <c r="L14" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="M14" s="12" t="s">
+      <c r="M14" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="N14" s="11">
+      <c r="N14" s="10">
         <v>0</v>
       </c>
-      <c r="IB14"/>
     </row>
-    <row r="15" ht="20.1" customHeight="1" spans="3:236">
-      <c r="C15" s="8">
+    <row r="15" spans="3:14" ht="20.100000000000001" customHeight="1">
+      <c r="C15" s="7">
         <v>10109</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="11">
-        <v>1</v>
-      </c>
-      <c r="G15" s="8">
+      <c r="F15" s="10">
+        <v>1</v>
+      </c>
+      <c r="G15" s="7">
         <v>10110</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="11">
         <v>9</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="11">
         <v>60</v>
       </c>
-      <c r="J15" s="12">
-        <v>1</v>
-      </c>
-      <c r="K15" s="12">
+      <c r="J15" s="11">
+        <v>1</v>
+      </c>
+      <c r="K15" s="11">
         <v>300000000</v>
       </c>
-      <c r="L15" s="13" t="s">
+      <c r="L15" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="M15" s="12" t="s">
+      <c r="M15" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="N15" s="11">
+      <c r="N15" s="10">
         <v>0</v>
       </c>
-      <c r="IB15"/>
     </row>
-    <row r="16" ht="20.1" customHeight="1" spans="3:236">
-      <c r="C16" s="8">
+    <row r="16" spans="3:14" ht="20.100000000000001" customHeight="1">
+      <c r="C16" s="7">
         <v>10110</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="11">
-        <v>1</v>
-      </c>
-      <c r="G16" s="8">
+      <c r="F16" s="10">
+        <v>1</v>
+      </c>
+      <c r="G16" s="7">
         <v>0</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="11">
         <v>10</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="11">
         <v>60</v>
       </c>
-      <c r="J16" s="12">
-        <v>1</v>
-      </c>
-      <c r="K16" s="12">
+      <c r="J16" s="11">
+        <v>1</v>
+      </c>
+      <c r="K16" s="11">
         <v>300000000</v>
       </c>
-      <c r="L16" s="13" t="s">
+      <c r="L16" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="M16" s="12" t="s">
+      <c r="M16" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="N16" s="11">
+      <c r="N16" s="10">
         <v>0</v>
       </c>
-      <c r="IB16"/>
     </row>
-    <row r="17" ht="20.1" customHeight="1" spans="3:14">
-      <c r="C17" s="8">
+    <row r="17" spans="3:14" ht="20.100000000000001" customHeight="1">
+      <c r="C17" s="7">
         <v>20100</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="11">
-        <v>1</v>
-      </c>
-      <c r="G17" s="8">
+      <c r="F17" s="10">
+        <v>1</v>
+      </c>
+      <c r="G17" s="7">
         <v>20101</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="11">
         <v>0</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="11">
         <v>60</v>
       </c>
-      <c r="J17" s="12">
-        <v>1</v>
-      </c>
-      <c r="K17" s="12">
+      <c r="J17" s="11">
+        <v>1</v>
+      </c>
+      <c r="K17" s="11">
         <v>25000000</v>
       </c>
-      <c r="L17" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="M17" s="12">
+      <c r="L17" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="M17" s="11">
         <v>0</v>
       </c>
-      <c r="N17" s="11">
+      <c r="N17" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="18" ht="20.1" customHeight="1" spans="3:14">
-      <c r="C18" s="8">
+    <row r="18" spans="3:14" ht="20.100000000000001" customHeight="1">
+      <c r="C18" s="7">
         <v>20101</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="11">
-        <v>1</v>
-      </c>
-      <c r="G18" s="8">
+      <c r="F18" s="10">
+        <v>1</v>
+      </c>
+      <c r="G18" s="7">
         <v>20102</v>
       </c>
-      <c r="H18" s="12">
-        <v>1</v>
-      </c>
-      <c r="I18" s="12">
+      <c r="H18" s="11">
+        <v>1</v>
+      </c>
+      <c r="I18" s="11">
         <v>60</v>
       </c>
-      <c r="J18" s="12">
-        <v>1</v>
-      </c>
-      <c r="K18" s="12">
+      <c r="J18" s="11">
+        <v>1</v>
+      </c>
+      <c r="K18" s="11">
         <v>50000000</v>
       </c>
-      <c r="L18" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="M18" s="12" t="s">
+      <c r="L18" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="N18" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" ht="20.100000000000001" customHeight="1">
+      <c r="C19" s="7">
+        <v>20102</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="N18" s="11">
+      <c r="E19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="10">
+        <v>1</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="11">
+        <v>2</v>
+      </c>
+      <c r="I19" s="11">
+        <v>60</v>
+      </c>
+      <c r="J19" s="11">
+        <v>1</v>
+      </c>
+      <c r="K19" s="11">
+        <v>75000000</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="N19" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="20.1" customHeight="1" spans="3:236">
-      <c r="C19" s="8">
+    <row r="20" spans="3:14" ht="20.100000000000001" customHeight="1">
+      <c r="C20" s="7">
+        <v>20101</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="10">
+        <v>1</v>
+      </c>
+      <c r="G20" s="7">
         <v>20102</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="H20" s="11">
+        <v>1</v>
+      </c>
+      <c r="I20" s="11">
+        <v>60</v>
+      </c>
+      <c r="J20" s="11">
+        <v>1</v>
+      </c>
+      <c r="K20" s="11">
+        <v>50000000</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="M20" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="N20" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" ht="20.100000000000001" customHeight="1">
+      <c r="C21" s="7">
+        <v>20102</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="10">
+        <v>1</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="11">
+        <v>2</v>
+      </c>
+      <c r="I21" s="11">
+        <v>60</v>
+      </c>
+      <c r="J21" s="11">
+        <v>1</v>
+      </c>
+      <c r="K21" s="11">
+        <v>75000000</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="N21" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" ht="20.100000000000001" customHeight="1">
+      <c r="C22" s="7">
+        <v>20101</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="10">
+        <v>1</v>
+      </c>
+      <c r="G22" s="7">
+        <v>20102</v>
+      </c>
+      <c r="H22" s="11">
+        <v>1</v>
+      </c>
+      <c r="I22" s="11">
+        <v>60</v>
+      </c>
+      <c r="J22" s="11">
+        <v>1</v>
+      </c>
+      <c r="K22" s="11">
+        <v>50000000</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="N22" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" ht="20.100000000000001" customHeight="1">
+      <c r="C23" s="7">
+        <v>20102</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="10">
+        <v>1</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="11">
+        <v>2</v>
+      </c>
+      <c r="I23" s="11">
+        <v>60</v>
+      </c>
+      <c r="J23" s="11">
+        <v>1</v>
+      </c>
+      <c r="K23" s="11">
+        <v>75000000</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="N23" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" ht="20.100000000000001" customHeight="1">
+      <c r="C24" s="7">
+        <v>20101</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="10">
+        <v>1</v>
+      </c>
+      <c r="G24" s="7">
+        <v>20102</v>
+      </c>
+      <c r="H24" s="11">
+        <v>1</v>
+      </c>
+      <c r="I24" s="11">
+        <v>60</v>
+      </c>
+      <c r="J24" s="11">
+        <v>1</v>
+      </c>
+      <c r="K24" s="11">
+        <v>50000000</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="M24" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="N24" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" ht="20.100000000000001" customHeight="1">
+      <c r="C25" s="7">
+        <v>20102</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="10">
+        <v>1</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="11">
+        <v>2</v>
+      </c>
+      <c r="I25" s="11">
+        <v>60</v>
+      </c>
+      <c r="J25" s="11">
+        <v>1</v>
+      </c>
+      <c r="K25" s="11">
+        <v>75000000</v>
+      </c>
+      <c r="L25" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="M25" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="N25" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" ht="20.100000000000001" customHeight="1">
+      <c r="C26" s="7">
+        <v>20101</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="10">
+        <v>1</v>
+      </c>
+      <c r="G26" s="7">
+        <v>20102</v>
+      </c>
+      <c r="H26" s="11">
+        <v>1</v>
+      </c>
+      <c r="I26" s="11">
+        <v>60</v>
+      </c>
+      <c r="J26" s="11">
+        <v>1</v>
+      </c>
+      <c r="K26" s="11">
+        <v>50000000</v>
+      </c>
+      <c r="L26" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="M26" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="N26" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" ht="20.100000000000001" customHeight="1">
+      <c r="C27" s="7">
+        <v>20102</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="10">
+        <v>1</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="11">
+        <v>2</v>
+      </c>
+      <c r="I27" s="11">
+        <v>60</v>
+      </c>
+      <c r="J27" s="11">
+        <v>1</v>
+      </c>
+      <c r="K27" s="11">
+        <v>75000000</v>
+      </c>
+      <c r="L27" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="M27" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="N27" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" ht="20.100000000000001" customHeight="1">
+      <c r="C28" s="7">
+        <v>30100</v>
+      </c>
+      <c r="D28" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E28" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="11">
-        <v>1</v>
-      </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="12">
+      <c r="F28" s="10">
+        <v>1</v>
+      </c>
+      <c r="G28" s="7">
+        <v>30101</v>
+      </c>
+      <c r="H28" s="11">
+        <v>0</v>
+      </c>
+      <c r="I28" s="11">
+        <v>60</v>
+      </c>
+      <c r="J28" s="11">
+        <v>1</v>
+      </c>
+      <c r="K28" s="11">
+        <v>25000000</v>
+      </c>
+      <c r="L28" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="M28" s="11">
+        <v>0</v>
+      </c>
+      <c r="N28" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" ht="20.100000000000001" customHeight="1">
+      <c r="C29" s="7">
+        <v>30101</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="10">
+        <v>1</v>
+      </c>
+      <c r="G29" s="7">
+        <v>30102</v>
+      </c>
+      <c r="H29" s="11">
+        <v>1</v>
+      </c>
+      <c r="I29" s="11">
+        <v>60</v>
+      </c>
+      <c r="J29" s="11">
+        <v>1</v>
+      </c>
+      <c r="K29" s="11">
+        <v>50000000</v>
+      </c>
+      <c r="L29" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="N29" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" ht="20.100000000000001" customHeight="1">
+      <c r="C30" s="7">
+        <v>30102</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="10">
+        <v>1</v>
+      </c>
+      <c r="G30" s="7"/>
+      <c r="H30" s="11">
         <v>2</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I30" s="11">
         <v>60</v>
       </c>
-      <c r="J19" s="12">
-        <v>1</v>
-      </c>
-      <c r="K19" s="12">
+      <c r="J30" s="11">
+        <v>1</v>
+      </c>
+      <c r="K30" s="11">
         <v>75000000</v>
       </c>
-      <c r="L19" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="M19" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="N19" s="11">
+      <c r="L30" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="N30" s="10">
         <v>0</v>
       </c>
-      <c r="IB19"/>
     </row>
-    <row r="20" ht="20.1" customHeight="1" spans="3:14">
-      <c r="C20" s="8">
-        <v>30100</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="10" t="s">
+    <row r="31" spans="3:14" ht="20.100000000000001" customHeight="1">
+      <c r="C31" s="7">
+        <v>30101</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="11">
-        <v>1</v>
-      </c>
-      <c r="G20" s="8">
+      <c r="F31" s="10">
+        <v>1</v>
+      </c>
+      <c r="G31" s="7">
+        <v>30102</v>
+      </c>
+      <c r="H31" s="11">
+        <v>1</v>
+      </c>
+      <c r="I31" s="11">
+        <v>60</v>
+      </c>
+      <c r="J31" s="11">
+        <v>1</v>
+      </c>
+      <c r="K31" s="11">
+        <v>50000000</v>
+      </c>
+      <c r="L31" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="M31" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="N31" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" ht="20.100000000000001" customHeight="1">
+      <c r="C32" s="7">
+        <v>30102</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="10">
+        <v>1</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="11">
+        <v>2</v>
+      </c>
+      <c r="I32" s="11">
+        <v>60</v>
+      </c>
+      <c r="J32" s="11">
+        <v>1</v>
+      </c>
+      <c r="K32" s="11">
+        <v>75000000</v>
+      </c>
+      <c r="L32" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="M32" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="N32" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:14" ht="20.100000000000001" customHeight="1">
+      <c r="C33" s="7">
         <v>30101</v>
       </c>
-      <c r="H20" s="12">
+      <c r="D33" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="10">
+        <v>1</v>
+      </c>
+      <c r="G33" s="7">
+        <v>30102</v>
+      </c>
+      <c r="H33" s="11">
+        <v>1</v>
+      </c>
+      <c r="I33" s="11">
+        <v>60</v>
+      </c>
+      <c r="J33" s="11">
+        <v>1</v>
+      </c>
+      <c r="K33" s="11">
+        <v>50000000</v>
+      </c>
+      <c r="L33" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="M33" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="N33" s="10">
         <v>0</v>
       </c>
-      <c r="I20" s="12">
+    </row>
+    <row r="34" spans="3:14" ht="20.100000000000001" customHeight="1">
+      <c r="C34" s="7">
+        <v>30102</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" s="10">
+        <v>1</v>
+      </c>
+      <c r="G34" s="7"/>
+      <c r="H34" s="11">
+        <v>2</v>
+      </c>
+      <c r="I34" s="11">
         <v>60</v>
       </c>
-      <c r="J20" s="12">
-        <v>1</v>
-      </c>
-      <c r="K20" s="12">
-        <v>25000000</v>
-      </c>
-      <c r="L20" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="M20" s="12">
+      <c r="J34" s="11">
+        <v>1</v>
+      </c>
+      <c r="K34" s="11">
+        <v>75000000</v>
+      </c>
+      <c r="L34" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="M34" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="N34" s="10">
         <v>0</v>
       </c>
-      <c r="N20" s="11">
+    </row>
+    <row r="35" spans="3:14" ht="20.100000000000001" customHeight="1">
+      <c r="C35" s="7">
+        <v>30101</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="10">
+        <v>1</v>
+      </c>
+      <c r="G35" s="7">
+        <v>30102</v>
+      </c>
+      <c r="H35" s="11">
+        <v>1</v>
+      </c>
+      <c r="I35" s="11">
+        <v>60</v>
+      </c>
+      <c r="J35" s="11">
+        <v>1</v>
+      </c>
+      <c r="K35" s="11">
+        <v>50000000</v>
+      </c>
+      <c r="L35" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="M35" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="N35" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="21" ht="20.1" customHeight="1" spans="3:14">
-      <c r="C21" s="8">
+    <row r="36" spans="3:14" ht="20.100000000000001" customHeight="1">
+      <c r="C36" s="7">
+        <v>30102</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" s="10">
+        <v>1</v>
+      </c>
+      <c r="G36" s="7"/>
+      <c r="H36" s="11">
+        <v>2</v>
+      </c>
+      <c r="I36" s="11">
+        <v>60</v>
+      </c>
+      <c r="J36" s="11">
+        <v>1</v>
+      </c>
+      <c r="K36" s="11">
+        <v>75000000</v>
+      </c>
+      <c r="L36" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="N36" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="3:14" ht="20.100000000000001" customHeight="1">
+      <c r="C37" s="7">
         <v>30101</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" s="10" t="s">
+      <c r="D37" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="11">
-        <v>1</v>
-      </c>
-      <c r="G21" s="8">
+      <c r="F37" s="10">
+        <v>1</v>
+      </c>
+      <c r="G37" s="7">
         <v>30102</v>
       </c>
-      <c r="H21" s="12">
-        <v>1</v>
-      </c>
-      <c r="I21" s="12">
+      <c r="H37" s="11">
+        <v>1</v>
+      </c>
+      <c r="I37" s="11">
         <v>60</v>
       </c>
-      <c r="J21" s="12">
-        <v>1</v>
-      </c>
-      <c r="K21" s="12">
+      <c r="J37" s="11">
+        <v>1</v>
+      </c>
+      <c r="K37" s="11">
         <v>50000000</v>
       </c>
-      <c r="L21" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="M21" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="N21" s="11">
+      <c r="L37" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="M37" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="N37" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="20.1" customHeight="1" spans="3:236">
-      <c r="C22" s="8">
+    <row r="38" spans="3:14" ht="20.100000000000001" customHeight="1">
+      <c r="C38" s="7">
         <v>30102</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" s="10" t="s">
+      <c r="D38" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="11">
-        <v>1</v>
-      </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="12">
+      <c r="F38" s="10">
+        <v>1</v>
+      </c>
+      <c r="G38" s="7"/>
+      <c r="H38" s="11">
         <v>2</v>
       </c>
-      <c r="I22" s="12">
+      <c r="I38" s="11">
         <v>60</v>
       </c>
-      <c r="J22" s="12">
-        <v>1</v>
-      </c>
-      <c r="K22" s="12">
+      <c r="J38" s="11">
+        <v>1</v>
+      </c>
+      <c r="K38" s="11">
         <v>75000000</v>
       </c>
-      <c r="L22" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="M22" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="N22" s="11">
+      <c r="L38" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="M38" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="N38" s="10">
         <v>0</v>
       </c>
-      <c r="IB22"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/PublicQiangHuaConfig.xlsx
+++ b/Excel/PublicQiangHuaConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623AD438-805E-4A99-92F9-FC68CF374065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BFCC67-8C81-4DEE-9D74-989F94CBB0E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2908,8 +2908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:N38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -3550,7 +3550,9 @@
       <c r="F19" s="10">
         <v>1</v>
       </c>
-      <c r="G19" s="7"/>
+      <c r="G19" s="7">
+        <v>20103</v>
+      </c>
       <c r="H19" s="11">
         <v>2</v>
       </c>
@@ -3575,7 +3577,7 @@
     </row>
     <row r="20" spans="3:14" ht="20.100000000000001" customHeight="1">
       <c r="C20" s="7">
-        <v>20101</v>
+        <v>20103</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>65</v>
@@ -3587,7 +3589,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="7">
-        <v>20102</v>
+        <v>20104</v>
       </c>
       <c r="H20" s="11">
         <v>1</v>
@@ -3613,7 +3615,7 @@
     </row>
     <row r="21" spans="3:14" ht="20.100000000000001" customHeight="1">
       <c r="C21" s="7">
-        <v>20102</v>
+        <v>20104</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>66</v>
@@ -3624,7 +3626,9 @@
       <c r="F21" s="10">
         <v>1</v>
       </c>
-      <c r="G21" s="7"/>
+      <c r="G21" s="7">
+        <v>20105</v>
+      </c>
       <c r="H21" s="11">
         <v>2</v>
       </c>
@@ -3649,7 +3653,7 @@
     </row>
     <row r="22" spans="3:14" ht="20.100000000000001" customHeight="1">
       <c r="C22" s="7">
-        <v>20101</v>
+        <v>20105</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>67</v>
@@ -3661,7 +3665,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="7">
-        <v>20102</v>
+        <v>20106</v>
       </c>
       <c r="H22" s="11">
         <v>1</v>
@@ -3687,7 +3691,7 @@
     </row>
     <row r="23" spans="3:14" ht="20.100000000000001" customHeight="1">
       <c r="C23" s="7">
-        <v>20102</v>
+        <v>20106</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>68</v>
@@ -3698,7 +3702,9 @@
       <c r="F23" s="10">
         <v>1</v>
       </c>
-      <c r="G23" s="7"/>
+      <c r="G23" s="7">
+        <v>20107</v>
+      </c>
       <c r="H23" s="11">
         <v>2</v>
       </c>
@@ -3723,7 +3729,7 @@
     </row>
     <row r="24" spans="3:14" ht="20.100000000000001" customHeight="1">
       <c r="C24" s="7">
-        <v>20101</v>
+        <v>20107</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>69</v>
@@ -3735,7 +3741,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="7">
-        <v>20102</v>
+        <v>20108</v>
       </c>
       <c r="H24" s="11">
         <v>1</v>
@@ -3761,7 +3767,7 @@
     </row>
     <row r="25" spans="3:14" ht="20.100000000000001" customHeight="1">
       <c r="C25" s="7">
-        <v>20102</v>
+        <v>20108</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>70</v>
@@ -3772,7 +3778,9 @@
       <c r="F25" s="10">
         <v>1</v>
       </c>
-      <c r="G25" s="7"/>
+      <c r="G25" s="7">
+        <v>20109</v>
+      </c>
       <c r="H25" s="11">
         <v>2</v>
       </c>
@@ -3797,7 +3805,7 @@
     </row>
     <row r="26" spans="3:14" ht="20.100000000000001" customHeight="1">
       <c r="C26" s="7">
-        <v>20101</v>
+        <v>20109</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>71</v>
@@ -3809,7 +3817,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="7">
-        <v>20102</v>
+        <v>20110</v>
       </c>
       <c r="H26" s="11">
         <v>1</v>
@@ -3835,7 +3843,7 @@
     </row>
     <row r="27" spans="3:14" ht="20.100000000000001" customHeight="1">
       <c r="C27" s="7">
-        <v>20102</v>
+        <v>20110</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>72</v>
@@ -3846,7 +3854,9 @@
       <c r="F27" s="10">
         <v>1</v>
       </c>
-      <c r="G27" s="7"/>
+      <c r="G27" s="7">
+        <v>0</v>
+      </c>
       <c r="H27" s="11">
         <v>2</v>
       </c>
@@ -3958,7 +3968,9 @@
       <c r="F30" s="10">
         <v>1</v>
       </c>
-      <c r="G30" s="7"/>
+      <c r="G30" s="7">
+        <v>30103</v>
+      </c>
       <c r="H30" s="11">
         <v>2</v>
       </c>
@@ -3983,7 +3995,7 @@
     </row>
     <row r="31" spans="3:14" ht="20.100000000000001" customHeight="1">
       <c r="C31" s="7">
-        <v>30101</v>
+        <v>30103</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>73</v>
@@ -3995,7 +4007,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="7">
-        <v>30102</v>
+        <v>30104</v>
       </c>
       <c r="H31" s="11">
         <v>1</v>
@@ -4021,7 +4033,7 @@
     </row>
     <row r="32" spans="3:14" ht="20.100000000000001" customHeight="1">
       <c r="C32" s="7">
-        <v>30102</v>
+        <v>30104</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>74</v>
@@ -4032,7 +4044,9 @@
       <c r="F32" s="10">
         <v>1</v>
       </c>
-      <c r="G32" s="7"/>
+      <c r="G32" s="7">
+        <v>30105</v>
+      </c>
       <c r="H32" s="11">
         <v>2</v>
       </c>
@@ -4057,7 +4071,7 @@
     </row>
     <row r="33" spans="3:14" ht="20.100000000000001" customHeight="1">
       <c r="C33" s="7">
-        <v>30101</v>
+        <v>30105</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>75</v>
@@ -4069,7 +4083,7 @@
         <v>1</v>
       </c>
       <c r="G33" s="7">
-        <v>30102</v>
+        <v>30106</v>
       </c>
       <c r="H33" s="11">
         <v>1</v>
@@ -4095,7 +4109,7 @@
     </row>
     <row r="34" spans="3:14" ht="20.100000000000001" customHeight="1">
       <c r="C34" s="7">
-        <v>30102</v>
+        <v>30106</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>76</v>
@@ -4106,7 +4120,9 @@
       <c r="F34" s="10">
         <v>1</v>
       </c>
-      <c r="G34" s="7"/>
+      <c r="G34" s="7">
+        <v>30107</v>
+      </c>
       <c r="H34" s="11">
         <v>2</v>
       </c>
@@ -4131,7 +4147,7 @@
     </row>
     <row r="35" spans="3:14" ht="20.100000000000001" customHeight="1">
       <c r="C35" s="7">
-        <v>30101</v>
+        <v>30107</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>77</v>
@@ -4143,7 +4159,7 @@
         <v>1</v>
       </c>
       <c r="G35" s="7">
-        <v>30102</v>
+        <v>30108</v>
       </c>
       <c r="H35" s="11">
         <v>1</v>
@@ -4169,7 +4185,7 @@
     </row>
     <row r="36" spans="3:14" ht="20.100000000000001" customHeight="1">
       <c r="C36" s="7">
-        <v>30102</v>
+        <v>30108</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>78</v>
@@ -4180,7 +4196,9 @@
       <c r="F36" s="10">
         <v>1</v>
       </c>
-      <c r="G36" s="7"/>
+      <c r="G36" s="7">
+        <v>30109</v>
+      </c>
       <c r="H36" s="11">
         <v>2</v>
       </c>
@@ -4205,7 +4223,7 @@
     </row>
     <row r="37" spans="3:14" ht="20.100000000000001" customHeight="1">
       <c r="C37" s="7">
-        <v>30101</v>
+        <v>30109</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>79</v>
@@ -4217,7 +4235,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="7">
-        <v>30102</v>
+        <v>30110</v>
       </c>
       <c r="H37" s="11">
         <v>1</v>
@@ -4243,7 +4261,7 @@
     </row>
     <row r="38" spans="3:14" ht="20.100000000000001" customHeight="1">
       <c r="C38" s="7">
-        <v>30102</v>
+        <v>30110</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>80</v>
@@ -4254,7 +4272,9 @@
       <c r="F38" s="10">
         <v>1</v>
       </c>
-      <c r="G38" s="7"/>
+      <c r="G38" s="7">
+        <v>0</v>
+      </c>
       <c r="H38" s="11">
         <v>2</v>
       </c>

--- a/Excel/PublicQiangHuaConfig.xlsx
+++ b/Excel/PublicQiangHuaConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BFCC67-8C81-4DEE-9D74-989F94CBB0E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CCE5A6-2670-497B-B9B7-772A53EE8B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipQiangHuaProto" sheetId="1" r:id="rId1"/>
@@ -1176,7 +1176,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="114">
   <si>
     <t>c</t>
   </si>
@@ -1514,6 +1514,13 @@
   </si>
   <si>
     <t>201003;0.10</t>
+  </si>
+  <si>
+    <t>qianghua_1</t>
+  </si>
+  <si>
+    <t>qianghua_2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2908,8 +2915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:N38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -3469,7 +3476,7 @@
         <v>59</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="F17" s="10">
         <v>1</v>
@@ -3507,7 +3514,7 @@
         <v>60</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="F18" s="10">
         <v>1</v>
@@ -3545,7 +3552,7 @@
         <v>61</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="F19" s="10">
         <v>1</v>
@@ -3583,7 +3590,7 @@
         <v>65</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="F20" s="10">
         <v>1</v>
@@ -3621,7 +3628,7 @@
         <v>66</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="F21" s="10">
         <v>1</v>
@@ -3659,7 +3666,7 @@
         <v>67</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="F22" s="10">
         <v>1</v>
@@ -3697,7 +3704,7 @@
         <v>68</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="F23" s="10">
         <v>1</v>
@@ -3735,7 +3742,7 @@
         <v>69</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="F24" s="10">
         <v>1</v>
@@ -3773,7 +3780,7 @@
         <v>70</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="F25" s="10">
         <v>1</v>
@@ -3811,7 +3818,7 @@
         <v>71</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="F26" s="10">
         <v>1</v>
@@ -3849,7 +3856,7 @@
         <v>72</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="F27" s="10">
         <v>1</v>
@@ -3887,7 +3894,7 @@
         <v>62</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="F28" s="10">
         <v>1</v>
@@ -3925,7 +3932,7 @@
         <v>63</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="F29" s="10">
         <v>1</v>
@@ -3963,7 +3970,7 @@
         <v>64</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="F30" s="10">
         <v>1</v>
@@ -4001,7 +4008,7 @@
         <v>73</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="F31" s="10">
         <v>1</v>
@@ -4039,7 +4046,7 @@
         <v>74</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="F32" s="10">
         <v>1</v>
@@ -4077,7 +4084,7 @@
         <v>75</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="F33" s="10">
         <v>1</v>
@@ -4115,7 +4122,7 @@
         <v>76</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="F34" s="10">
         <v>1</v>
@@ -4153,7 +4160,7 @@
         <v>77</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="F35" s="10">
         <v>1</v>
@@ -4191,7 +4198,7 @@
         <v>78</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="F36" s="10">
         <v>1</v>
@@ -4229,7 +4236,7 @@
         <v>79</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="F37" s="10">
         <v>1</v>
@@ -4267,7 +4274,7 @@
         <v>80</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="F38" s="10">
         <v>1</v>

--- a/Excel/PublicQiangHuaConfig.xlsx
+++ b/Excel/PublicQiangHuaConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CCE5A6-2670-497B-B9B7-772A53EE8B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0BF220-D431-416F-88F6-88655FAF4B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2915,8 +2915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:N38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -3494,7 +3494,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="11">
-        <v>25000000</v>
+        <v>0</v>
       </c>
       <c r="L17" s="11" t="s">
         <v>83</v>
@@ -3532,7 +3532,7 @@
         <v>1</v>
       </c>
       <c r="K18" s="11">
-        <v>50000000</v>
+        <v>0</v>
       </c>
       <c r="L18" s="11" t="s">
         <v>84</v>
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="11">
-        <v>75000000</v>
+        <v>0</v>
       </c>
       <c r="L19" s="11" t="s">
         <v>85</v>
@@ -3608,7 +3608,7 @@
         <v>1</v>
       </c>
       <c r="K20" s="11">
-        <v>50000000</v>
+        <v>0</v>
       </c>
       <c r="L20" s="11" t="s">
         <v>86</v>
@@ -3646,7 +3646,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="11">
-        <v>75000000</v>
+        <v>0</v>
       </c>
       <c r="L21" s="11" t="s">
         <v>87</v>
@@ -3684,7 +3684,7 @@
         <v>1</v>
       </c>
       <c r="K22" s="11">
-        <v>50000000</v>
+        <v>0</v>
       </c>
       <c r="L22" s="11" t="s">
         <v>81</v>
@@ -3722,7 +3722,7 @@
         <v>1</v>
       </c>
       <c r="K23" s="11">
-        <v>75000000</v>
+        <v>0</v>
       </c>
       <c r="L23" s="11" t="s">
         <v>88</v>
@@ -3760,7 +3760,7 @@
         <v>1</v>
       </c>
       <c r="K24" s="11">
-        <v>50000000</v>
+        <v>0</v>
       </c>
       <c r="L24" s="11" t="s">
         <v>89</v>
@@ -3798,7 +3798,7 @@
         <v>1</v>
       </c>
       <c r="K25" s="11">
-        <v>75000000</v>
+        <v>0</v>
       </c>
       <c r="L25" s="11" t="s">
         <v>90</v>
@@ -3836,7 +3836,7 @@
         <v>1</v>
       </c>
       <c r="K26" s="11">
-        <v>50000000</v>
+        <v>0</v>
       </c>
       <c r="L26" s="11" t="s">
         <v>91</v>
@@ -3874,7 +3874,7 @@
         <v>1</v>
       </c>
       <c r="K27" s="11">
-        <v>75000000</v>
+        <v>0</v>
       </c>
       <c r="L27" s="11" t="s">
         <v>82</v>
@@ -3912,7 +3912,7 @@
         <v>1</v>
       </c>
       <c r="K28" s="11">
-        <v>25000000</v>
+        <v>0</v>
       </c>
       <c r="L28" s="12" t="s">
         <v>83</v>
@@ -3950,7 +3950,7 @@
         <v>1</v>
       </c>
       <c r="K29" s="11">
-        <v>50000000</v>
+        <v>0</v>
       </c>
       <c r="L29" s="12" t="s">
         <v>84</v>
@@ -3988,7 +3988,7 @@
         <v>1</v>
       </c>
       <c r="K30" s="11">
-        <v>75000000</v>
+        <v>0</v>
       </c>
       <c r="L30" s="12" t="s">
         <v>85</v>
@@ -4026,7 +4026,7 @@
         <v>1</v>
       </c>
       <c r="K31" s="11">
-        <v>50000000</v>
+        <v>0</v>
       </c>
       <c r="L31" s="12" t="s">
         <v>86</v>
@@ -4064,7 +4064,7 @@
         <v>1</v>
       </c>
       <c r="K32" s="11">
-        <v>75000000</v>
+        <v>0</v>
       </c>
       <c r="L32" s="12" t="s">
         <v>87</v>
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="K33" s="11">
-        <v>50000000</v>
+        <v>0</v>
       </c>
       <c r="L33" s="12" t="s">
         <v>81</v>
@@ -4140,7 +4140,7 @@
         <v>1</v>
       </c>
       <c r="K34" s="11">
-        <v>75000000</v>
+        <v>0</v>
       </c>
       <c r="L34" s="12" t="s">
         <v>88</v>
@@ -4178,7 +4178,7 @@
         <v>1</v>
       </c>
       <c r="K35" s="11">
-        <v>50000000</v>
+        <v>0</v>
       </c>
       <c r="L35" s="12" t="s">
         <v>89</v>
@@ -4216,7 +4216,7 @@
         <v>1</v>
       </c>
       <c r="K36" s="11">
-        <v>75000000</v>
+        <v>0</v>
       </c>
       <c r="L36" s="12" t="s">
         <v>90</v>
@@ -4254,7 +4254,7 @@
         <v>1</v>
       </c>
       <c r="K37" s="11">
-        <v>50000000</v>
+        <v>0</v>
       </c>
       <c r="L37" s="12" t="s">
         <v>91</v>
@@ -4292,7 +4292,7 @@
         <v>1</v>
       </c>
       <c r="K38" s="11">
-        <v>75000000</v>
+        <v>0</v>
       </c>
       <c r="L38" s="12" t="s">
         <v>82</v>
